--- a/Resultados/Correlacao/Correlacao.xlsx
+++ b/Resultados/Correlacao/Correlacao.xlsx
@@ -179,59 +179,59 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="e">
-        <v>#N/A</v>
+      <c r="B2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8381678811791187</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="D2" t="n">
-        <v>0.024680548626870413</v>
+        <v>0.8109906863144086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5972361900987948</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5043782750864465</v>
+        <v>-0.5103493078392206</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9390838437989397</v>
+        <v>0.36969696969696964</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4766299787648842</v>
+        <v>0.7454545454545454</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9372833917375285</v>
+        <v>-0.24848484848484845</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8865269290573672</v>
+        <v>-0.4863244349440517</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6061272776749949</v>
+        <v>0.32121212121212117</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8864302481973774</v>
+        <v>0.2848484848484848</v>
       </c>
       <c r="M2" t="n">
-        <v>0.15002398557622243</v>
+        <v>-0.32121212121212117</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8716622720584815</v>
+        <v>0.10303030303030301</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7476736831635546</v>
+        <v>-0.018181818181818177</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8966849656424283</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4352023857735392</v>
+        <v>0.04893172289450491</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5665902158488445</v>
+        <v>-0.018181818181818177</v>
       </c>
       <c r="S2" t="n">
-        <v>0.36170000069824804</v>
+        <v>0.26060606060606056</v>
       </c>
     </row>
     <row r="3">
@@ -239,58 +239,58 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8381678811791187</v>
-      </c>
-      <c r="C3" t="e">
-        <v>#N/A</v>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4764373831474549</v>
+        <v>0.2378092989944506</v>
       </c>
       <c r="E3" t="n">
-        <v>0.16538665709103206</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="F3" t="n">
-        <v>0.20988747223207738</v>
+        <v>0.29409960112768646</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05679452114674732</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07622223825137375</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3720943344320067</v>
+        <v>-0.32121212121212117</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09853896747531454</v>
+        <v>-0.49848254581765294</v>
       </c>
       <c r="K3" t="n">
-        <v>0.17891633898413617</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L3" t="n">
-        <v>0.18398635555624976</v>
+        <v>0.2242424242424242</v>
       </c>
       <c r="M3" t="n">
-        <v>0.11327206878739693</v>
+        <v>-0.3454545454545454</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8095981406144515</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5147375945691763</v>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6921850777000615</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.46297870953772513</v>
+        <v>0.31805619881428193</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8237260800034227</v>
+        <v>-0.0303030303030303</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6433931023614403</v>
+        <v>-0.07878787878787878</v>
       </c>
     </row>
     <row r="4">
@@ -298,58 +298,58 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.024680548626870413</v>
+        <v>0.8109906863144086</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4764373831474549</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#N/A</v>
+        <v>0.2378092989944506</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01902225011355796</v>
+        <v>0.6097674333191042</v>
       </c>
       <c r="F4" t="n">
-        <v>0.39973834873799863</v>
+        <v>-0.3611700963833359</v>
       </c>
       <c r="G4" t="n">
-        <v>0.45681518763421125</v>
+        <v>0.31707906532593416</v>
       </c>
       <c r="H4" t="n">
-        <v>0.012355700838545758</v>
+        <v>0.7317209199829251</v>
       </c>
       <c r="I4" t="n">
-        <v>0.13408555010359402</v>
+        <v>-0.34146976265869833</v>
       </c>
       <c r="J4" t="n">
-        <v>0.17114631863662932</v>
+        <v>-0.4006134940681701</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5653319711591962</v>
+        <v>0.22561395032806852</v>
       </c>
       <c r="L4" t="n">
-        <v>0.11837778518350461</v>
+        <v>0.32317673965912525</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9335667096522637</v>
+        <v>-0.3780558086578446</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5648858543054676</v>
+        <v>-0.09756278933105667</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5891369339635517</v>
+        <v>-0.35976278565827147</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7506934061726203</v>
+        <v>-0.018293022999573125</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9787089784140663</v>
+        <v>0.07384650341622818</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7380359716596863</v>
+        <v>-0.34146976265869833</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8471796470139759</v>
+        <v>-0.03048837166595521</v>
       </c>
     </row>
     <row r="5">
@@ -357,58 +357,58 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5972361900987948</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.16538665709103206</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01902225011355796</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#N/A</v>
+        <v>0.6097674333191042</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.39800469162705276</v>
+        <v>-0.35464951900691605</v>
       </c>
       <c r="G5" t="n">
-        <v>0.12272143076346098</v>
+        <v>0.5515151515151514</v>
       </c>
       <c r="H5" t="n">
-        <v>1.6625230241373856E-6</v>
+        <v>0.915151515151515</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0010229685367248997</v>
+        <v>-0.7333333333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>0.010471540556776127</v>
+        <v>-0.8936211492096948</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07224278773093107</v>
+        <v>0.6969696969696969</v>
       </c>
       <c r="L5" t="n">
-        <v>1.1206252023776564E-4</v>
+        <v>0.7696969696969695</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09494615831058129</v>
+        <v>-0.7818181818181817</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3229429380354527</v>
+        <v>0.5393939393939393</v>
       </c>
       <c r="O5" t="n">
-        <v>0.29528584189970575</v>
+        <v>-0.18787878787878787</v>
       </c>
       <c r="P5" t="n">
-        <v>0.48314238284307853</v>
+        <v>0.44242424242424233</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3947107095847229</v>
+        <v>0.5688312786486197</v>
       </c>
       <c r="R5" t="n">
-        <v>0.32850870209385974</v>
+        <v>-0.24848484848484845</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6027338480658004</v>
+        <v>0.18787878787878787</v>
       </c>
     </row>
     <row r="6">
@@ -416,58 +416,58 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5043782750864465</v>
+        <v>-0.5103493078392206</v>
       </c>
       <c r="C6" t="n">
-        <v>0.20988747223207738</v>
+        <v>0.29409960112768646</v>
       </c>
       <c r="D6" t="n">
-        <v>0.39973834873799863</v>
+        <v>-0.3611700963833359</v>
       </c>
       <c r="E6" t="n">
-        <v>0.39800469162705276</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#N/A</v>
+        <v>-0.35464951900691605</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5462169773364667</v>
+        <v>-0.11244984748999777</v>
       </c>
       <c r="H6" t="n">
-        <v>0.430361935247479</v>
+        <v>-0.16434977710076598</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7567274124777117</v>
+        <v>0.008649988268461367</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9663420742851712</v>
+        <v>0.16485008199352866</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9581888998206205</v>
+        <v>-0.18164975363768873</v>
       </c>
       <c r="L6" t="n">
-        <v>0.49522503687683583</v>
+        <v>-0.27679962459076374</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6355686375528573</v>
+        <v>0.16434977710076598</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4030691587740378</v>
+        <v>0.017299976536922734</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8082456346775855</v>
+        <v>0.20759971844307282</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8673530805787253</v>
+        <v>0.11244984748999777</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9285202476302656</v>
+        <v>0.257526543765471</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8060244707665263</v>
+        <v>0.39789946034922286</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6526449205542622</v>
+        <v>0.017299976536922734</v>
       </c>
     </row>
     <row r="7">
@@ -475,58 +475,58 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9390838437989397</v>
+        <v>0.36969696969696964</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05679452114674732</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="D7" t="n">
-        <v>0.45681518763421125</v>
+        <v>0.31707906532593416</v>
       </c>
       <c r="E7" t="n">
-        <v>0.12272143076346098</v>
+        <v>0.5515151515151514</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5462169773364667</v>
-      </c>
-      <c r="G7" t="e">
-        <v>#N/A</v>
+        <v>-0.11244984748999777</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1500472486107718</v>
+        <v>0.43030303030303024</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09915732926016663</v>
+        <v>-0.41818181818181815</v>
       </c>
       <c r="J7" t="n">
-        <v>0.013346876558014253</v>
+        <v>-0.6565379871744698</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04708653834632637</v>
+        <v>0.5878787878787879</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06655491499459787</v>
+        <v>0.49090909090909085</v>
       </c>
       <c r="M7" t="n">
-        <v>0.040140236499996096</v>
+        <v>-0.6363636363636362</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5745380110229705</v>
+        <v>0.018181818181818177</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4080682443459971</v>
+        <v>-0.4666666666666666</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9244860004363735</v>
+        <v>-0.2242424242424242</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6998953560123744</v>
+        <v>0.018349396085439344</v>
       </c>
       <c r="R7" t="n">
-        <v>0.45151922598610694</v>
+        <v>-0.3575757575757575</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4068464984594997</v>
+        <v>-0.26060606060606056</v>
       </c>
     </row>
     <row r="8">
@@ -534,58 +534,58 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4766299787648842</v>
+        <v>0.7454545454545454</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07622223825137375</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="D8" t="n">
-        <v>0.012355700838545758</v>
+        <v>0.7317209199829251</v>
       </c>
       <c r="E8" t="n">
-        <v>1.6625230241373856E-6</v>
+        <v>0.915151515151515</v>
       </c>
       <c r="F8" t="n">
-        <v>0.430361935247479</v>
+        <v>-0.16434977710076598</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1500472486107718</v>
-      </c>
-      <c r="H8" t="e">
-        <v>#N/A</v>
+        <v>0.43030303030303024</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.010183759980582963</v>
+        <v>-0.7212121212121211</v>
       </c>
       <c r="J8" t="n">
-        <v>0.015116130319037246</v>
+        <v>-0.8206724839680872</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0935406213409753</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="L8" t="n">
-        <v>9.703291789930901E-4</v>
+        <v>0.6363636363636362</v>
       </c>
       <c r="M8" t="n">
-        <v>0.13971602641528547</v>
+        <v>-0.6969696969696969</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3444873301122884</v>
+        <v>0.36969696969696964</v>
       </c>
       <c r="O8" t="n">
-        <v>0.34626505035266675</v>
+        <v>-0.24848484848484845</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4787984565762451</v>
+        <v>0.39393939393939387</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4253421143360281</v>
+        <v>0.5321324864777409</v>
       </c>
       <c r="R8" t="n">
-        <v>0.40597331970453654</v>
+        <v>-0.24848484848484845</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6831595505555137</v>
+        <v>0.054545454545454536</v>
       </c>
     </row>
     <row r="9">
@@ -593,58 +593,58 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9372833917375285</v>
+        <v>-0.24848484848484845</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3720943344320067</v>
+        <v>-0.32121212121212117</v>
       </c>
       <c r="D9" t="n">
-        <v>0.13408555010359402</v>
+        <v>-0.34146976265869833</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0010229685367248997</v>
+        <v>-0.7333333333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7567274124777117</v>
+        <v>0.008649988268461367</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09915732926016663</v>
+        <v>-0.41818181818181815</v>
       </c>
       <c r="H9" t="n">
-        <v>0.010183759980582963</v>
-      </c>
-      <c r="I9" t="e">
-        <v>#N/A</v>
+        <v>-0.7212121212121211</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.005669123696528278</v>
+        <v>0.8936211492096948</v>
       </c>
       <c r="K9" t="n">
-        <v>0.017895184471769632</v>
+        <v>-0.6242424242424242</v>
       </c>
       <c r="L9" t="n">
-        <v>1.395225685161261E-4</v>
+        <v>-0.9393939393939392</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02062839247596404</v>
+        <v>0.9515151515151513</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1691076756680956</v>
+        <v>-0.5878787878787879</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5084414845485152</v>
+        <v>0.43030303030303024</v>
       </c>
       <c r="P9" t="n">
-        <v>0.23899449214233237</v>
+        <v>-0.5757575757575757</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1165580972481357</v>
+        <v>-0.7523252395030131</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5884082135168254</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8316786320548006</v>
+        <v>0.17575757575757575</v>
       </c>
     </row>
     <row r="10">
@@ -652,58 +652,58 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8865269290573672</v>
+        <v>-0.4863244349440517</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09853896747531454</v>
+        <v>-0.49848254581765294</v>
       </c>
       <c r="D10" t="n">
-        <v>0.17114631863662932</v>
+        <v>-0.4006134940681701</v>
       </c>
       <c r="E10" t="n">
-        <v>0.010471540556776127</v>
+        <v>-0.8936211492096948</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9663420742851712</v>
+        <v>0.16485008199352866</v>
       </c>
       <c r="G10" t="n">
-        <v>0.013346876558014253</v>
+        <v>-0.6565379871744698</v>
       </c>
       <c r="H10" t="n">
-        <v>0.015116130319037246</v>
+        <v>-0.8206724839680872</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005669123696528278</v>
-      </c>
-      <c r="J10" t="e">
-        <v>#N/A</v>
+        <v>0.8936211492096948</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.2535414692793623E-4</v>
+        <v>-0.7538028741632801</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007748348996921672</v>
+        <v>-0.8814630383360936</v>
       </c>
       <c r="M10" t="n">
-        <v>0.045974213517949725</v>
+        <v>0.9422535927041</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02738266093687991</v>
+        <v>-0.5471149893120582</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8110502670717894</v>
+        <v>0.32218993815043423</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06424929770299581</v>
+        <v>-0.4863244349440517</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.11319880601509191</v>
+        <v>-0.6349812749303677</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8154685151735417</v>
+        <v>0.3829804925184407</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7530335396503007</v>
+        <v>0.0790277206784084</v>
       </c>
     </row>
     <row r="11">
@@ -711,58 +711,58 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6061272776749949</v>
+        <v>0.32121212121212117</v>
       </c>
       <c r="C11" t="n">
-        <v>0.17891633898413617</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5653319711591962</v>
+        <v>0.22561395032806852</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07224278773093107</v>
+        <v>0.6969696969696969</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9581888998206205</v>
+        <v>-0.18164975363768873</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04708653834632637</v>
+        <v>0.5878787878787879</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0935406213409753</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="I11" t="n">
-        <v>0.017895184471769632</v>
+        <v>-0.6242424242424242</v>
       </c>
       <c r="J11" t="n">
-        <v>1.2535414692793623E-4</v>
-      </c>
-      <c r="K11" t="e">
-        <v>#N/A</v>
+        <v>-0.7538028741632801</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01672354454546854</v>
+        <v>0.7212121212121211</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01309364787248768</v>
+        <v>-0.7454545454545454</v>
       </c>
       <c r="N11" t="n">
-        <v>0.004042861962907818</v>
+        <v>0.6727272727272726</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4606252870006897</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="P11" t="n">
-        <v>0.012885867084537761</v>
+        <v>0.5515151515151514</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.010445479947186698</v>
+        <v>0.6361123976285639</v>
       </c>
       <c r="R11" t="n">
-        <v>0.48406541566852423</v>
+        <v>-0.10303030303030301</v>
       </c>
       <c r="S11" t="n">
-        <v>0.44953561012812804</v>
+        <v>0.29696969696969694</v>
       </c>
     </row>
     <row r="12">
@@ -770,58 +770,58 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8864302481973774</v>
+        <v>0.2848484848484848</v>
       </c>
       <c r="C12" t="n">
-        <v>0.18398635555624976</v>
+        <v>0.2242424242424242</v>
       </c>
       <c r="D12" t="n">
-        <v>0.11837778518350461</v>
+        <v>0.32317673965912525</v>
       </c>
       <c r="E12" t="n">
-        <v>1.1206252023776564E-4</v>
+        <v>0.7696969696969695</v>
       </c>
       <c r="F12" t="n">
-        <v>0.49522503687683583</v>
+        <v>-0.27679962459076374</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06655491499459787</v>
+        <v>0.49090909090909085</v>
       </c>
       <c r="H12" t="n">
-        <v>9.703291789930901E-4</v>
+        <v>0.6363636363636362</v>
       </c>
       <c r="I12" t="n">
-        <v>1.395225685161261E-4</v>
+        <v>-0.9393939393939392</v>
       </c>
       <c r="J12" t="n">
-        <v>0.007748348996921672</v>
+        <v>-0.8814630383360936</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01672354454546854</v>
-      </c>
-      <c r="L12" t="e">
-        <v>#N/A</v>
+        <v>0.7212121212121211</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005445285913920239</v>
+        <v>-0.9636363636363636</v>
       </c>
       <c r="N12" t="n">
-        <v>0.21165069370846767</v>
+        <v>0.6</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3366865455792265</v>
+        <v>-0.4666666666666666</v>
       </c>
       <c r="P12" t="n">
-        <v>0.36802151317016585</v>
+        <v>0.49090909090909085</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.12232865243958457</v>
+        <v>0.6483453283521902</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3811941518683928</v>
+        <v>-0.6</v>
       </c>
       <c r="S12" t="n">
-        <v>0.667085019510719</v>
+        <v>-0.13939393939393938</v>
       </c>
     </row>
     <row r="13">
@@ -829,58 +829,58 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.15002398557622243</v>
+        <v>-0.32121212121212117</v>
       </c>
       <c r="C13" t="n">
-        <v>0.11327206878739693</v>
+        <v>-0.3454545454545454</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9335667096522637</v>
+        <v>-0.3780558086578446</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09494615831058129</v>
+        <v>-0.7818181818181817</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6355686375528573</v>
+        <v>0.16434977710076598</v>
       </c>
       <c r="G13" t="n">
-        <v>0.040140236499996096</v>
+        <v>-0.6363636363636362</v>
       </c>
       <c r="H13" t="n">
-        <v>0.13971602641528547</v>
+        <v>-0.6969696969696969</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02062839247596404</v>
+        <v>0.9515151515151513</v>
       </c>
       <c r="J13" t="n">
-        <v>0.045974213517949725</v>
+        <v>0.9422535927041</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01309364787248768</v>
+        <v>-0.7454545454545454</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005445285913920239</v>
-      </c>
-      <c r="M13" t="e">
-        <v>#N/A</v>
+        <v>-0.9636363636363636</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.36831281210434486</v>
+        <v>-0.5151515151515151</v>
       </c>
       <c r="O13" t="n">
-        <v>0.40570988733044233</v>
+        <v>0.5030303030303029</v>
       </c>
       <c r="P13" t="n">
-        <v>0.425206608822319</v>
+        <v>-0.43030303030303024</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.04349556192181492</v>
+        <v>-0.6177630015431246</v>
       </c>
       <c r="R13" t="n">
-        <v>0.504403720107778</v>
+        <v>0.5878787878787879</v>
       </c>
       <c r="S13" t="n">
-        <v>0.545828232146663</v>
+        <v>0.2242424242424242</v>
       </c>
     </row>
     <row r="14">
@@ -888,58 +888,58 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8716622720584815</v>
+        <v>0.10303030303030301</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8095981406144515</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5648858543054676</v>
+        <v>-0.09756278933105667</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3229429380354527</v>
+        <v>0.5393939393939393</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4030691587740378</v>
+        <v>0.017299976536922734</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5745380110229705</v>
+        <v>0.018181818181818177</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3444873301122884</v>
+        <v>0.36969696969696964</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1691076756680956</v>
+        <v>-0.5878787878787879</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02738266093687991</v>
+        <v>-0.5471149893120582</v>
       </c>
       <c r="K14" t="n">
-        <v>0.004042861962907818</v>
+        <v>0.6727272727272726</v>
       </c>
       <c r="L14" t="n">
-        <v>0.21165069370846767</v>
+        <v>0.6</v>
       </c>
       <c r="M14" t="n">
-        <v>0.36831281210434486</v>
-      </c>
-      <c r="N14" t="e">
-        <v>#N/A</v>
+        <v>-0.5151515151515151</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.025355610152382857</v>
+        <v>0.36969696969696964</v>
       </c>
       <c r="P14" t="n">
-        <v>8.81741398934821E-5</v>
+        <v>0.8424242424242423</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.008164675886537909</v>
+        <v>0.850188685292023</v>
       </c>
       <c r="R14" t="n">
-        <v>0.041272856799434265</v>
+        <v>0.18787878787878787</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01632266937178395</v>
+        <v>0.5878787878787879</v>
       </c>
     </row>
     <row r="15">
@@ -947,58 +947,58 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7476736831635546</v>
+        <v>-0.018181818181818177</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5147375945691763</v>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5891369339635517</v>
+        <v>-0.35976278565827147</v>
       </c>
       <c r="E15" t="n">
-        <v>0.29528584189970575</v>
+        <v>-0.18787878787878787</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8082456346775855</v>
+        <v>0.20759971844307282</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4080682443459971</v>
+        <v>-0.4666666666666666</v>
       </c>
       <c r="H15" t="n">
-        <v>0.34626505035266675</v>
+        <v>-0.24848484848484845</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5084414845485152</v>
+        <v>0.43030303030303024</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8110502670717894</v>
+        <v>0.32218993815043423</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4606252870006897</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3366865455792265</v>
+        <v>-0.4666666666666666</v>
       </c>
       <c r="M15" t="n">
-        <v>0.40570988733044233</v>
+        <v>0.5030303030303029</v>
       </c>
       <c r="N15" t="n">
-        <v>0.025355610152382857</v>
-      </c>
-      <c r="O15" t="e">
-        <v>#N/A</v>
+        <v>0.36969696969696964</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.015079410517173208</v>
+        <v>0.406060606060606</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.21352639496639947</v>
+        <v>0.1712610301307672</v>
       </c>
       <c r="R15" t="n">
-        <v>1.9296150995495864E-5</v>
+        <v>0.9393939393939392</v>
       </c>
       <c r="S15" t="n">
-        <v>2.5866603806790067E-4</v>
+        <v>0.8424242424242423</v>
       </c>
     </row>
     <row r="16">
@@ -1006,58 +1006,58 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8966849656424283</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6921850777000615</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7506934061726203</v>
+        <v>-0.018293022999573125</v>
       </c>
       <c r="E16" t="n">
-        <v>0.48314238284307853</v>
+        <v>0.44242424242424233</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8673530805787253</v>
+        <v>0.11244984748999777</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9244860004363735</v>
+        <v>-0.2242424242424242</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4787984565762451</v>
+        <v>0.39393939393939387</v>
       </c>
       <c r="I16" t="n">
-        <v>0.23899449214233237</v>
+        <v>-0.5757575757575757</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06424929770299581</v>
+        <v>-0.4863244349440517</v>
       </c>
       <c r="K16" t="n">
-        <v>0.012885867084537761</v>
+        <v>0.5515151515151514</v>
       </c>
       <c r="L16" t="n">
-        <v>0.36802151317016585</v>
+        <v>0.49090909090909085</v>
       </c>
       <c r="M16" t="n">
-        <v>0.425206608822319</v>
+        <v>-0.43030303030303024</v>
       </c>
       <c r="N16" t="n">
-        <v>8.81741398934821E-5</v>
+        <v>0.8424242424242423</v>
       </c>
       <c r="O16" t="n">
-        <v>0.015079410517173208</v>
-      </c>
-      <c r="P16" t="e">
-        <v>#N/A</v>
+        <v>0.406060606060606</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.002400185837994062</v>
+        <v>0.9174698042719672</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01377516846231086</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="S16" t="n">
-        <v>0.011231586743671862</v>
+        <v>0.4666666666666666</v>
       </c>
     </row>
     <row r="17">
@@ -1065,58 +1065,58 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4352023857735392</v>
+        <v>0.04893172289450491</v>
       </c>
       <c r="C17" t="n">
-        <v>0.46297870953772513</v>
+        <v>0.31805619881428193</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9787089784140663</v>
+        <v>0.07384650341622818</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3947107095847229</v>
+        <v>0.5688312786486197</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9285202476302656</v>
+        <v>0.257526543765471</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6998953560123744</v>
+        <v>0.018349396085439344</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4253421143360281</v>
+        <v>0.5321324864777409</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1165580972481357</v>
+        <v>-0.7523252395030131</v>
       </c>
       <c r="J17" t="n">
-        <v>0.11319880601509191</v>
+        <v>-0.6349812749303677</v>
       </c>
       <c r="K17" t="n">
-        <v>0.010445479947186698</v>
+        <v>0.6361123976285639</v>
       </c>
       <c r="L17" t="n">
-        <v>0.12232865243958457</v>
+        <v>0.6483453283521902</v>
       </c>
       <c r="M17" t="n">
-        <v>0.04349556192181492</v>
+        <v>-0.6177630015431246</v>
       </c>
       <c r="N17" t="n">
-        <v>0.008164675886537909</v>
+        <v>0.850188685292023</v>
       </c>
       <c r="O17" t="n">
-        <v>0.21352639496639947</v>
+        <v>0.1712610301307672</v>
       </c>
       <c r="P17" t="n">
-        <v>0.002400185837994062</v>
-      </c>
-      <c r="Q17" t="e">
-        <v>#N/A</v>
+        <v>0.9174698042719672</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.13202123993390336</v>
+        <v>0.0428152575326918</v>
       </c>
       <c r="S17" t="n">
-        <v>0.09254516736475793</v>
+        <v>0.35475499098516067</v>
       </c>
     </row>
     <row r="18">
@@ -1124,58 +1124,58 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5665902158488445</v>
+        <v>-0.018181818181818177</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8237260800034227</v>
+        <v>-0.0303030303030303</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7380359716596863</v>
+        <v>-0.34146976265869833</v>
       </c>
       <c r="E18" t="n">
-        <v>0.32850870209385974</v>
+        <v>-0.24848484848484845</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8060244707665263</v>
+        <v>0.39789946034922286</v>
       </c>
       <c r="G18" t="n">
-        <v>0.45151922598610694</v>
+        <v>-0.3575757575757575</v>
       </c>
       <c r="H18" t="n">
-        <v>0.40597331970453654</v>
+        <v>-0.24848484848484845</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5884082135168254</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8154685151735417</v>
+        <v>0.3829804925184407</v>
       </c>
       <c r="K18" t="n">
-        <v>0.48406541566852423</v>
+        <v>-0.10303030303030301</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3811941518683928</v>
+        <v>-0.6</v>
       </c>
       <c r="M18" t="n">
-        <v>0.504403720107778</v>
+        <v>0.5878787878787879</v>
       </c>
       <c r="N18" t="n">
-        <v>0.041272856799434265</v>
+        <v>0.18787878787878787</v>
       </c>
       <c r="O18" t="n">
-        <v>1.9296150995495864E-5</v>
+        <v>0.9393939393939392</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01377516846231086</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.13202123993390336</v>
-      </c>
-      <c r="R18" t="e">
-        <v>#N/A</v>
+        <v>0.0428152575326918</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.0</v>
       </c>
       <c r="S18" t="n">
-        <v>3.0215289752444363E-5</v>
+        <v>0.7696969696969695</v>
       </c>
     </row>
     <row r="19">
@@ -1183,58 +1183,58 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.36170000069824804</v>
+        <v>0.26060606060606056</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6433931023614403</v>
+        <v>-0.07878787878787878</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8471796470139759</v>
+        <v>-0.03048837166595521</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6027338480658004</v>
+        <v>0.18787878787878787</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6526449205542622</v>
+        <v>0.017299976536922734</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4068464984594997</v>
+        <v>-0.26060606060606056</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6831595505555137</v>
+        <v>0.054545454545454536</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8316786320548006</v>
+        <v>0.17575757575757575</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7530335396503007</v>
+        <v>0.0790277206784084</v>
       </c>
       <c r="K19" t="n">
-        <v>0.44953561012812804</v>
+        <v>0.29696969696969694</v>
       </c>
       <c r="L19" t="n">
-        <v>0.667085019510719</v>
+        <v>-0.13939393939393938</v>
       </c>
       <c r="M19" t="n">
-        <v>0.545828232146663</v>
+        <v>0.2242424242424242</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01632266937178395</v>
+        <v>0.5878787878787879</v>
       </c>
       <c r="O19" t="n">
-        <v>2.5866603806790067E-4</v>
+        <v>0.8424242424242423</v>
       </c>
       <c r="P19" t="n">
-        <v>0.011231586743671862</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.09254516736475793</v>
+        <v>0.35475499098516067</v>
       </c>
       <c r="R19" t="n">
-        <v>3.0215289752444363E-5</v>
-      </c>
-      <c r="S19" t="e">
-        <v>#N/A</v>
+        <v>0.7696969696969695</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1311,59 +1311,59 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="e">
-        <v>#N/A</v>
+      <c r="B2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8381678811791187</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="D2" t="n">
-        <v>0.024680548626870413</v>
+        <v>0.19384467383902396</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5972361900987948</v>
+        <v>0.3525852153344375</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5043782750864465</v>
+        <v>-0.7046939203804071</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9390838437989397</v>
+        <v>0.32121212121212117</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4766299787648842</v>
+        <v>0.7575757575757575</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9372833917375285</v>
+        <v>-0.2553203283456271</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8865269290573672</v>
+        <v>-0.5471149893120582</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6061272776749949</v>
+        <v>-0.1337392196096142</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8864302481973774</v>
+        <v>-0.08510677611520905</v>
       </c>
       <c r="M2" t="n">
-        <v>0.15002398557622243</v>
+        <v>-0.4127015636572767</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8716622720584815</v>
+        <v>0.16565664216775916</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7476736831635546</v>
+        <v>-0.16565664216775916</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8966849656424283</v>
+        <v>-0.20246922931615008</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4352023857735392</v>
+        <v>-0.1563263498701806</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5665902158488445</v>
+        <v>-0.3374487155269168</v>
       </c>
       <c r="S2" t="n">
-        <v>0.36170000069824804</v>
+        <v>-0.16565664216775916</v>
       </c>
     </row>
     <row r="3">
@@ -1371,58 +1371,58 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8381678811791187</v>
-      </c>
-      <c r="C3" t="e">
-        <v>#N/A</v>
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4764373831474549</v>
+        <v>0.7378603713872524</v>
       </c>
       <c r="E3" t="n">
-        <v>0.16538665709103206</v>
+        <v>0.15197638592001614</v>
       </c>
       <c r="F3" t="n">
-        <v>0.20988747223207738</v>
+        <v>0.22627786434233257</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05679452114674732</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07622223825137375</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3720943344320067</v>
+        <v>0.22492505116162387</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09853896747531454</v>
+        <v>-0.12766016417281356</v>
       </c>
       <c r="K3" t="n">
-        <v>0.17891633898413617</v>
+        <v>0.6139845991168652</v>
       </c>
       <c r="L3" t="n">
-        <v>0.18398635555624976</v>
+        <v>0.15197638592001614</v>
       </c>
       <c r="M3" t="n">
-        <v>0.11327206878739693</v>
+        <v>0.28764048376113227</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8095981406144515</v>
+        <v>0.4724282017376836</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5147375945691763</v>
+        <v>-0.10430233025377429</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6921850777000615</v>
+        <v>-0.06748974310538337</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.46297870953772513</v>
+        <v>0.05627748595326501</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8237260800034227</v>
+        <v>0.12884405501936824</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6433931023614403</v>
+        <v>0.03067715595699244</v>
       </c>
     </row>
     <row r="4">
@@ -1430,58 +1430,58 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.024680548626870413</v>
+        <v>0.19384467383902396</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4764373831474549</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#N/A</v>
+        <v>0.7378603713872524</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01902225011355796</v>
+        <v>0.6115286980546811</v>
       </c>
       <c r="F4" t="n">
-        <v>0.39973834873799863</v>
+        <v>-0.06670373459650702</v>
       </c>
       <c r="G4" t="n">
-        <v>0.45681518763421125</v>
+        <v>0.5502687515430358</v>
       </c>
       <c r="H4" t="n">
-        <v>0.012355700838545758</v>
+        <v>0.5627748595326502</v>
       </c>
       <c r="I4" t="n">
-        <v>0.13408555010359402</v>
+        <v>-0.46727064620588454</v>
       </c>
       <c r="J4" t="n">
-        <v>0.17114631863662932</v>
+        <v>-0.4986310922599707</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5653319711591962</v>
+        <v>0.3794613972544431</v>
       </c>
       <c r="L4" t="n">
-        <v>0.11837778518350461</v>
+        <v>-0.12857782882175345</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9335667096522637</v>
+        <v>-0.14838709677419354</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5648858543054676</v>
+        <v>0.7976121446165623</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5891369339635517</v>
+        <v>-0.06963280627604909</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7506934061726203</v>
+        <v>0.3798153069602678</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9787089784140663</v>
+        <v>0.467741935483871</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7380359716596863</v>
+        <v>0.3798153069602678</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8471796470139759</v>
+        <v>0.5127506643963614</v>
       </c>
     </row>
     <row r="5">
@@ -1489,58 +1489,58 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5972361900987948</v>
+        <v>0.3525852153344375</v>
       </c>
       <c r="C5" t="n">
-        <v>0.16538665709103206</v>
+        <v>0.15197638592001614</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01902225011355796</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#N/A</v>
+        <v>0.6115286980546811</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.39800469162705276</v>
+        <v>-0.5187809998641209</v>
       </c>
       <c r="G5" t="n">
-        <v>0.12272143076346098</v>
+        <v>0.8085143730944859</v>
       </c>
       <c r="H5" t="n">
-        <v>1.6625230241373856E-6</v>
+        <v>0.668696098048071</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0010229685367248997</v>
+        <v>-0.6585365853658538</v>
       </c>
       <c r="J5" t="n">
-        <v>0.010471540556776127</v>
+        <v>-0.9512195121951221</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07224278773093107</v>
+        <v>-0.29268292682926833</v>
       </c>
       <c r="L5" t="n">
-        <v>1.1206252023776564E-4</v>
+        <v>-0.24390243902439032</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09494615831058129</v>
+        <v>-0.36378117422740003</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3229429380354527</v>
+        <v>0.7446471099018033</v>
       </c>
       <c r="O5" t="n">
-        <v>0.29528584189970575</v>
+        <v>0.09231162519443843</v>
       </c>
       <c r="P5" t="n">
-        <v>0.48314238284307853</v>
+        <v>0.3754006091240496</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3947107095847229</v>
+        <v>0.5080392260761966</v>
       </c>
       <c r="R5" t="n">
-        <v>0.32850870209385974</v>
+        <v>0.3384759590462742</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6027338480658004</v>
+        <v>0.46155812597219215</v>
       </c>
     </row>
     <row r="6">
@@ -1548,58 +1548,58 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5043782750864465</v>
+        <v>-0.7046939203804071</v>
       </c>
       <c r="C6" t="n">
-        <v>0.20988747223207738</v>
+        <v>0.22627786434233257</v>
       </c>
       <c r="D6" t="n">
-        <v>0.39973834873799863</v>
+        <v>-0.06670373459650702</v>
       </c>
       <c r="E6" t="n">
-        <v>0.39800469162705276</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#N/A</v>
+        <v>-0.5187809998641209</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5462169773364667</v>
+        <v>-0.20041753698892315</v>
       </c>
       <c r="H6" t="n">
-        <v>0.430361935247479</v>
+        <v>-0.4073001558161986</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7567274124777117</v>
+        <v>0.5187809998641209</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9663420742851712</v>
+        <v>0.674415299823357</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9581888998206205</v>
+        <v>0.6873848248199601</v>
       </c>
       <c r="L6" t="n">
-        <v>0.49522503687683583</v>
+        <v>0.07781714997961811</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6355686375528573</v>
+        <v>0.6670373459650701</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4030691587740378</v>
+        <v>-0.26834092814179344</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8082456346775855</v>
+        <v>-0.255251126769023</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8673530805787253</v>
+        <v>-0.1112633116685485</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9285202476302656</v>
+        <v>-0.30683717914393227</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8060244707665263</v>
+        <v>0.13744291441408935</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6526449205542622</v>
+        <v>-0.13744291441408935</v>
       </c>
     </row>
     <row r="7">
@@ -1607,58 +1607,58 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9390838437989397</v>
+        <v>0.32121212121212117</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05679452114674732</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D7" t="n">
-        <v>0.45681518763421125</v>
+        <v>0.5502687515430358</v>
       </c>
       <c r="E7" t="n">
-        <v>0.12272143076346098</v>
+        <v>0.8085143730944859</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5462169773364667</v>
-      </c>
-      <c r="G7" t="e">
-        <v>#N/A</v>
+        <v>-0.20041753698892315</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1500472486107718</v>
+        <v>0.7212121212121211</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09915732926016663</v>
+        <v>-0.32218993815043423</v>
       </c>
       <c r="J7" t="n">
-        <v>0.013346876558014253</v>
+        <v>-0.7598819296000807</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04708653834632637</v>
+        <v>0.03039527718400323</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06655491499459787</v>
+        <v>-0.03039527718400323</v>
       </c>
       <c r="M7" t="n">
-        <v>0.040140236499996096</v>
+        <v>-0.20635078182863836</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5745380110229705</v>
+        <v>0.4478864769720896</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4080682443459971</v>
+        <v>-0.3865321650581047</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9244860004363735</v>
+        <v>-0.10430233025377429</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6998953560123744</v>
+        <v>0.07503664793768668</v>
       </c>
       <c r="R7" t="n">
-        <v>0.45151922598610694</v>
+        <v>-0.06748974310538337</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4068464984594997</v>
+        <v>0.0061354311913984876</v>
       </c>
     </row>
     <row r="8">
@@ -1666,58 +1666,58 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4766299787648842</v>
+        <v>0.7575757575757575</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07622223825137375</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="D8" t="n">
-        <v>0.012355700838545758</v>
+        <v>0.5627748595326502</v>
       </c>
       <c r="E8" t="n">
-        <v>1.6625230241373856E-6</v>
+        <v>0.668696098048071</v>
       </c>
       <c r="F8" t="n">
-        <v>0.430361935247479</v>
+        <v>-0.4073001558161986</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1500472486107718</v>
-      </c>
-      <c r="H8" t="e">
-        <v>#N/A</v>
+        <v>0.7212121212121211</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.010183759980582963</v>
+        <v>-0.4255338805760452</v>
       </c>
       <c r="J8" t="n">
-        <v>0.015116130319037246</v>
+        <v>-0.7416447632896788</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0935406213409753</v>
+        <v>0.03647433262080387</v>
       </c>
       <c r="L8" t="n">
-        <v>9.703291789930901E-4</v>
+        <v>-0.27963655009282967</v>
       </c>
       <c r="M8" t="n">
-        <v>0.13971602641528547</v>
+        <v>-0.25637521378709616</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3444873301122884</v>
+        <v>0.5583242384172624</v>
       </c>
       <c r="O8" t="n">
-        <v>0.34626505035266675</v>
+        <v>-0.16565664216775916</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4787984565762451</v>
+        <v>0.0061354311913984876</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4253421143360281</v>
+        <v>0.05627748595326501</v>
       </c>
       <c r="R8" t="n">
-        <v>0.40597331970453654</v>
+        <v>-0.0061354311913984876</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6831595505555137</v>
+        <v>0.10430233025377429</v>
       </c>
     </row>
     <row r="9">
@@ -1725,58 +1725,58 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9372833917375285</v>
+        <v>-0.2553203283456271</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3720943344320067</v>
+        <v>0.22492505116162387</v>
       </c>
       <c r="D9" t="n">
-        <v>0.13408555010359402</v>
+        <v>-0.46727064620588454</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0010229685367248997</v>
+        <v>-0.6585365853658538</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7567274124777117</v>
+        <v>0.5187809998641209</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09915732926016663</v>
+        <v>-0.32218993815043423</v>
       </c>
       <c r="H9" t="n">
-        <v>0.010183759980582963</v>
-      </c>
-      <c r="I9" t="e">
-        <v>#N/A</v>
+        <v>-0.4255338805760452</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.005669123696528278</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="K9" t="n">
-        <v>0.017895184471769632</v>
+        <v>0.3170731707317074</v>
       </c>
       <c r="L9" t="n">
-        <v>1.395225685161261E-4</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02062839247596404</v>
+        <v>0.6773856347682621</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1691076756680956</v>
+        <v>-0.58464029289811</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5084414845485152</v>
+        <v>-0.16616092534998916</v>
       </c>
       <c r="P9" t="n">
-        <v>0.23899449214233237</v>
+        <v>-0.6831060264388444</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1165580972481357</v>
+        <v>-0.6962019024007139</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5884082135168254</v>
+        <v>-0.3877088258166414</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8316786320548006</v>
+        <v>-0.756955326594395</v>
       </c>
     </row>
     <row r="10">
@@ -1784,58 +1784,58 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8865269290573672</v>
+        <v>-0.5471149893120582</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09853896747531454</v>
+        <v>-0.12766016417281356</v>
       </c>
       <c r="D10" t="n">
-        <v>0.17114631863662932</v>
+        <v>-0.4986310922599707</v>
       </c>
       <c r="E10" t="n">
-        <v>0.010471540556776127</v>
+        <v>-0.9512195121951221</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9663420742851712</v>
+        <v>0.674415299823357</v>
       </c>
       <c r="G10" t="n">
-        <v>0.013346876558014253</v>
+        <v>-0.7598819296000807</v>
       </c>
       <c r="H10" t="n">
-        <v>0.015116130319037246</v>
+        <v>-0.7416447632896788</v>
       </c>
       <c r="I10" t="n">
-        <v>0.005669123696528278</v>
-      </c>
-      <c r="J10" t="e">
-        <v>#N/A</v>
+        <v>0.5609756097560976</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.2535414692793623E-4</v>
+        <v>0.4146341463414635</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007748348996921672</v>
+        <v>0.26829268292682934</v>
       </c>
       <c r="M10" t="n">
-        <v>0.045974213517949725</v>
+        <v>0.36378117422740003</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02738266093687991</v>
+        <v>-0.6954142431314362</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8110502670717894</v>
+        <v>-0.16616092534998916</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06424929770299581</v>
+        <v>-0.2523184421981317</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.11319880601509191</v>
+        <v>-0.3951416202814862</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8154685151735417</v>
+        <v>-0.21539379212035634</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7530335396503007</v>
+        <v>-0.31385952566109065</v>
       </c>
     </row>
     <row r="11">
@@ -1843,58 +1843,58 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6061272776749949</v>
+        <v>-0.1337392196096142</v>
       </c>
       <c r="C11" t="n">
-        <v>0.17891633898413617</v>
+        <v>0.6139845991168652</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5653319711591962</v>
+        <v>0.3794613972544431</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07224278773093107</v>
+        <v>-0.29268292682926833</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9581888998206205</v>
+        <v>0.6873848248199601</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04708653834632637</v>
+        <v>0.03039527718400323</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0935406213409753</v>
+        <v>0.03647433262080387</v>
       </c>
       <c r="I11" t="n">
-        <v>0.017895184471769632</v>
+        <v>0.3170731707317074</v>
       </c>
       <c r="J11" t="n">
-        <v>1.2535414692793623E-4</v>
-      </c>
-      <c r="K11" t="e">
-        <v>#N/A</v>
+        <v>0.4146341463414635</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01672354454546854</v>
+        <v>0.3292682926829269</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01309364787248768</v>
+        <v>0.2822440144867759</v>
       </c>
       <c r="N11" t="n">
-        <v>0.004042861962907818</v>
+        <v>-0.05538697511666306</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4606252870006897</v>
+        <v>-0.5723320762055183</v>
       </c>
       <c r="P11" t="n">
-        <v>0.012885867084537761</v>
+        <v>-0.15385270865739736</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.010445479947186698</v>
+        <v>-0.2446114792218724</v>
       </c>
       <c r="R11" t="n">
-        <v>0.48406541566852423</v>
+        <v>-0.06769519180925485</v>
       </c>
       <c r="S11" t="n">
-        <v>0.44953561012812804</v>
+        <v>-0.10461984188703022</v>
       </c>
     </row>
     <row r="12">
@@ -1902,58 +1902,58 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8864302481973774</v>
+        <v>-0.08510677611520905</v>
       </c>
       <c r="C12" t="n">
-        <v>0.18398635555624976</v>
+        <v>0.15197638592001614</v>
       </c>
       <c r="D12" t="n">
-        <v>0.11837778518350461</v>
+        <v>-0.12857782882175345</v>
       </c>
       <c r="E12" t="n">
-        <v>1.1206252023776564E-4</v>
+        <v>-0.24390243902439032</v>
       </c>
       <c r="F12" t="n">
-        <v>0.49522503687683583</v>
+        <v>0.07781714997961811</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06655491499459787</v>
+        <v>-0.03039527718400323</v>
       </c>
       <c r="H12" t="n">
-        <v>9.703291789930901E-4</v>
+        <v>-0.27963655009282967</v>
       </c>
       <c r="I12" t="n">
-        <v>1.395225685161261E-4</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="J12" t="n">
-        <v>0.007748348996921672</v>
+        <v>0.26829268292682934</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01672354454546854</v>
-      </c>
-      <c r="L12" t="e">
-        <v>#N/A</v>
+        <v>0.3292682926829269</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005445285913920239</v>
+        <v>-0.3449649065949483</v>
       </c>
       <c r="N12" t="n">
-        <v>0.21165069370846767</v>
+        <v>-0.350784175738866</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3366865455792265</v>
+        <v>-0.46155812597219215</v>
       </c>
       <c r="P12" t="n">
-        <v>0.36802151317016585</v>
+        <v>-0.412325259201825</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.12232865243958457</v>
+        <v>-0.03136044605408621</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3811941518683928</v>
+        <v>-0.5969485095907019</v>
       </c>
       <c r="S12" t="n">
-        <v>0.667085019510719</v>
+        <v>-0.350784175738866</v>
       </c>
     </row>
     <row r="13">
@@ -1961,58 +1961,58 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.15002398557622243</v>
+        <v>-0.4127015636572767</v>
       </c>
       <c r="C13" t="n">
-        <v>0.11327206878739693</v>
+        <v>0.28764048376113227</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9335667096522637</v>
+        <v>-0.14838709677419354</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09494615831058129</v>
+        <v>-0.36378117422740003</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6355686375528573</v>
+        <v>0.6670373459650701</v>
       </c>
       <c r="G13" t="n">
-        <v>0.040140236499996096</v>
+        <v>-0.20635078182863836</v>
       </c>
       <c r="H13" t="n">
-        <v>0.13971602641528547</v>
+        <v>-0.25637521378709616</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02062839247596404</v>
+        <v>0.6773856347682621</v>
       </c>
       <c r="J13" t="n">
-        <v>0.045974213517949725</v>
+        <v>0.36378117422740003</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01309364787248768</v>
+        <v>0.2822440144867759</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005445285913920239</v>
-      </c>
-      <c r="M13" t="e">
-        <v>#N/A</v>
+        <v>-0.3449649065949483</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.36831281210434486</v>
+        <v>-0.15825637790011154</v>
       </c>
       <c r="O13" t="n">
-        <v>0.40570988733044233</v>
+        <v>0.13926561255209818</v>
       </c>
       <c r="P13" t="n">
-        <v>0.425206608822319</v>
+        <v>-0.20256816371214278</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.04349556192181492</v>
+        <v>-0.49354838709677423</v>
       </c>
       <c r="R13" t="n">
-        <v>0.504403720107778</v>
+        <v>0.27853122510419637</v>
       </c>
       <c r="S13" t="n">
-        <v>0.545828232146663</v>
+        <v>-0.2848614802202008</v>
       </c>
     </row>
     <row r="14">
@@ -2020,58 +2020,58 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8716622720584815</v>
+        <v>0.16565664216775916</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8095981406144515</v>
+        <v>0.4724282017376836</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5648858543054676</v>
+        <v>0.7976121446165623</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3229429380354527</v>
+        <v>0.7446471099018033</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4030691587740378</v>
+        <v>-0.26834092814179344</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5745380110229705</v>
+        <v>0.4478864769720896</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3444873301122884</v>
+        <v>0.5583242384172624</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1691076756680956</v>
+        <v>-0.58464029289811</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02738266093687991</v>
+        <v>-0.6954142431314362</v>
       </c>
       <c r="K14" t="n">
-        <v>0.004042861962907818</v>
+        <v>-0.05538697511666306</v>
       </c>
       <c r="L14" t="n">
-        <v>0.21165069370846767</v>
+        <v>-0.350784175738866</v>
       </c>
       <c r="M14" t="n">
-        <v>0.36831281210434486</v>
-      </c>
-      <c r="N14" t="e">
-        <v>#N/A</v>
+        <v>-0.15825637790011154</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.025355610152382857</v>
+        <v>0.45341614906832306</v>
       </c>
       <c r="P14" t="n">
-        <v>8.81741398934821E-5</v>
+        <v>0.6770186335403727</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.008164675886537909</v>
+        <v>0.7406398485725221</v>
       </c>
       <c r="R14" t="n">
-        <v>0.041272856799434265</v>
+        <v>0.6770186335403727</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01632266937178395</v>
+        <v>0.7515527950310561</v>
       </c>
     </row>
     <row r="15">
@@ -2079,58 +2079,58 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7476736831635546</v>
+        <v>-0.16565664216775916</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5147375945691763</v>
+        <v>-0.10430233025377429</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5891369339635517</v>
+        <v>-0.06963280627604909</v>
       </c>
       <c r="E15" t="n">
-        <v>0.29528584189970575</v>
+        <v>0.09231162519443843</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8082456346775855</v>
+        <v>-0.255251126769023</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4080682443459971</v>
+        <v>-0.3865321650581047</v>
       </c>
       <c r="H15" t="n">
-        <v>0.34626505035266675</v>
+        <v>-0.16565664216775916</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5084414845485152</v>
+        <v>-0.16616092534998916</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8110502670717894</v>
+        <v>-0.16616092534998916</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4606252870006897</v>
+        <v>-0.5723320762055183</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3366865455792265</v>
+        <v>-0.46155812597219215</v>
       </c>
       <c r="M15" t="n">
-        <v>0.40570988733044233</v>
+        <v>0.13926561255209818</v>
       </c>
       <c r="N15" t="n">
-        <v>0.025355610152382857</v>
-      </c>
-      <c r="O15" t="e">
-        <v>#N/A</v>
+        <v>0.45341614906832306</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.015079410517173208</v>
+        <v>0.6024844720496896</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.21352639496639947</v>
+        <v>0.5380716848603793</v>
       </c>
       <c r="R15" t="n">
-        <v>1.9296150995495864E-5</v>
+        <v>0.6645962732919256</v>
       </c>
       <c r="S15" t="n">
-        <v>2.5866603806790067E-4</v>
+        <v>0.5279503105590063</v>
       </c>
     </row>
     <row r="16">
@@ -2138,58 +2138,58 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8966849656424283</v>
+        <v>-0.20246922931615008</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6921850777000615</v>
+        <v>-0.06748974310538337</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7506934061726203</v>
+        <v>0.3798153069602678</v>
       </c>
       <c r="E16" t="n">
-        <v>0.48314238284307853</v>
+        <v>0.3754006091240496</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8673530805787253</v>
+        <v>-0.1112633116685485</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9244860004363735</v>
+        <v>-0.10430233025377429</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4787984565762451</v>
+        <v>0.0061354311913984876</v>
       </c>
       <c r="I16" t="n">
-        <v>0.23899449214233237</v>
+        <v>-0.6831060264388444</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06424929770299581</v>
+        <v>-0.2523184421981317</v>
       </c>
       <c r="K16" t="n">
-        <v>0.012885867084537761</v>
+        <v>-0.15385270865739736</v>
       </c>
       <c r="L16" t="n">
-        <v>0.36802151317016585</v>
+        <v>-0.412325259201825</v>
       </c>
       <c r="M16" t="n">
-        <v>0.425206608822319</v>
+        <v>-0.20256816371214278</v>
       </c>
       <c r="N16" t="n">
-        <v>8.81741398934821E-5</v>
+        <v>0.6770186335403727</v>
       </c>
       <c r="O16" t="n">
-        <v>0.015079410517173208</v>
-      </c>
-      <c r="P16" t="e">
-        <v>#N/A</v>
+        <v>0.6024844720496896</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.002400185837994062</v>
+        <v>0.835593675312589</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01377516846231086</v>
+        <v>0.8633540372670809</v>
       </c>
       <c r="S16" t="n">
-        <v>0.011231586743671862</v>
+        <v>0.9751552795031057</v>
       </c>
     </row>
     <row r="17">
@@ -2197,58 +2197,58 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4352023857735392</v>
+        <v>-0.1563263498701806</v>
       </c>
       <c r="C17" t="n">
-        <v>0.46297870953772513</v>
+        <v>0.05627748595326501</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9787089784140663</v>
+        <v>0.467741935483871</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3947107095847229</v>
+        <v>0.5080392260761966</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9285202476302656</v>
+        <v>-0.30683717914393227</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6998953560123744</v>
+        <v>0.07503664793768668</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4253421143360281</v>
+        <v>0.05627748595326501</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1165580972481357</v>
+        <v>-0.6962019024007139</v>
       </c>
       <c r="J17" t="n">
-        <v>0.11319880601509191</v>
+        <v>-0.3951416202814862</v>
       </c>
       <c r="K17" t="n">
-        <v>0.010445479947186698</v>
+        <v>-0.2446114792218724</v>
       </c>
       <c r="L17" t="n">
-        <v>0.12232865243958457</v>
+        <v>-0.03136044605408621</v>
       </c>
       <c r="M17" t="n">
-        <v>0.04349556192181492</v>
+        <v>-0.49354838709677423</v>
       </c>
       <c r="N17" t="n">
-        <v>0.008164675886537909</v>
+        <v>0.7406398485725221</v>
       </c>
       <c r="O17" t="n">
-        <v>0.21352639496639947</v>
+        <v>0.5380716848603793</v>
       </c>
       <c r="P17" t="n">
-        <v>0.002400185837994062</v>
-      </c>
-      <c r="Q17" t="e">
-        <v>#N/A</v>
+        <v>0.835593675312589</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.13202123993390336</v>
+        <v>0.6077044911364283</v>
       </c>
       <c r="S17" t="n">
-        <v>0.09254516736475793</v>
+        <v>0.8925659713566292</v>
       </c>
     </row>
     <row r="18">
@@ -2256,58 +2256,58 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5665902158488445</v>
+        <v>-0.3374487155269168</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8237260800034227</v>
+        <v>0.12884405501936824</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7380359716596863</v>
+        <v>0.3798153069602678</v>
       </c>
       <c r="E18" t="n">
-        <v>0.32850870209385974</v>
+        <v>0.3384759590462742</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8060244707665263</v>
+        <v>0.13744291441408935</v>
       </c>
       <c r="G18" t="n">
-        <v>0.45151922598610694</v>
+        <v>-0.06748974310538337</v>
       </c>
       <c r="H18" t="n">
-        <v>0.40597331970453654</v>
+        <v>-0.0061354311913984876</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5884082135168254</v>
+        <v>-0.3877088258166414</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8154685151735417</v>
+        <v>-0.21539379212035634</v>
       </c>
       <c r="K18" t="n">
-        <v>0.48406541566852423</v>
+        <v>-0.06769519180925485</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3811941518683928</v>
+        <v>-0.5969485095907019</v>
       </c>
       <c r="M18" t="n">
-        <v>0.504403720107778</v>
+        <v>0.27853122510419637</v>
       </c>
       <c r="N18" t="n">
-        <v>0.041272856799434265</v>
+        <v>0.6770186335403727</v>
       </c>
       <c r="O18" t="n">
-        <v>1.9296150995495864E-5</v>
+        <v>0.6645962732919256</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01377516846231086</v>
+        <v>0.8633540372670809</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.13202123993390336</v>
-      </c>
-      <c r="R18" t="e">
-        <v>#N/A</v>
+        <v>0.6077044911364283</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.0</v>
       </c>
       <c r="S18" t="n">
-        <v>3.0215289752444363E-5</v>
+        <v>0.8260869565217394</v>
       </c>
     </row>
     <row r="19">
@@ -2315,58 +2315,58 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.36170000069824804</v>
+        <v>-0.16565664216775916</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6433931023614403</v>
+        <v>0.03067715595699244</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8471796470139759</v>
+        <v>0.5127506643963614</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6027338480658004</v>
+        <v>0.46155812597219215</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6526449205542622</v>
+        <v>-0.13744291441408935</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4068464984594997</v>
+        <v>0.0061354311913984876</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6831595505555137</v>
+        <v>0.10430233025377429</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8316786320548006</v>
+        <v>-0.756955326594395</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7530335396503007</v>
+        <v>-0.31385952566109065</v>
       </c>
       <c r="K19" t="n">
-        <v>0.44953561012812804</v>
+        <v>-0.10461984188703022</v>
       </c>
       <c r="L19" t="n">
-        <v>0.667085019510719</v>
+        <v>-0.350784175738866</v>
       </c>
       <c r="M19" t="n">
-        <v>0.545828232146663</v>
+        <v>-0.2848614802202008</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01632266937178395</v>
+        <v>0.7515527950310561</v>
       </c>
       <c r="O19" t="n">
-        <v>2.5866603806790067E-4</v>
+        <v>0.5279503105590063</v>
       </c>
       <c r="P19" t="n">
-        <v>0.011231586743671862</v>
+        <v>0.9751552795031057</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.09254516736475793</v>
+        <v>0.8925659713566292</v>
       </c>
       <c r="R19" t="n">
-        <v>3.0215289752444363E-5</v>
-      </c>
-      <c r="S19" t="e">
-        <v>#N/A</v>
+        <v>0.8260869565217394</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -2443,59 +2443,59 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="e">
-        <v>#N/A</v>
+      <c r="B2" t="n">
+        <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3626871689140714</v>
+        <v>0.054545454545454536</v>
       </c>
       <c r="D2" t="n">
-        <v>0.037211809341406</v>
+        <v>0.8528249356043898</v>
       </c>
       <c r="E2" t="n">
-        <v>1.8472549726311627E-5</v>
+        <v>0.9515151515151513</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4701120688689837</v>
+        <v>-0.16162704595880897</v>
       </c>
       <c r="G2" t="n">
-        <v>4.098280429680745E-4</v>
+        <v>0.915151515151515</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02650831664264297</v>
+        <v>0.8787878787878787</v>
       </c>
       <c r="I2" t="n">
-        <v>0.020849992151350305</v>
+        <v>-0.7333333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02077620889221743</v>
+        <v>-0.9393939393939392</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8792686849849116</v>
+        <v>0.10303030303030301</v>
       </c>
       <c r="L2" t="n">
-        <v>0.584298294486898</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="M2" t="n">
-        <v>0.413059169360257</v>
+        <v>-0.6810328622452322</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0013497703894134183</v>
+        <v>0.8909090909090908</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6091468940581506</v>
+        <v>-0.2727272727272727</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5875098652020516</v>
+        <v>0.2674784392192284</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.013866428346201776</v>
+        <v>0.6930123197952736</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8893701344518976</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="S2" t="n">
-        <v>0.528270130970117</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="3">
@@ -2503,58 +2503,58 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3626871689140714</v>
-      </c>
-      <c r="C3" t="e">
-        <v>#N/A</v>
+        <v>0.054545454545454536</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5150661240427794</v>
+        <v>0.27609440361293197</v>
       </c>
       <c r="E3" t="n">
-        <v>0.524075223553256</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08848795497993045</v>
+        <v>0.7305542477338166</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1871990426492962</v>
+        <v>0.29696969696969694</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5840088355460207</v>
+        <v>0.29696969696969694</v>
       </c>
       <c r="I3" t="n">
-        <v>0.12770353480909447</v>
+        <v>-0.43030303030303024</v>
       </c>
       <c r="J3" t="n">
-        <v>0.11353264129399943</v>
+        <v>-0.18787878787878787</v>
       </c>
       <c r="K3" t="n">
-        <v>0.46208512187335105</v>
+        <v>-0.2242424242424242</v>
       </c>
       <c r="L3" t="n">
-        <v>0.883644724887048</v>
+        <v>0.11515151515151514</v>
       </c>
       <c r="M3" t="n">
-        <v>0.20338274633517628</v>
+        <v>-0.30063612837852594</v>
       </c>
       <c r="N3" t="n">
-        <v>0.19196329378672905</v>
+        <v>0.26060606060606056</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9102237832237652</v>
+        <v>-0.0909090909090909</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8173872113839351</v>
+        <v>-0.20668788485122194</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.06612243479259128</v>
+        <v>0.5167197121280549</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8589991859238184</v>
+        <v>-0.06666666666666667</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6870165409408504</v>
+        <v>-0.0303030303030303</v>
       </c>
     </row>
     <row r="4">
@@ -2562,58 +2562,58 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.037211809341406</v>
+        <v>0.8528249356043898</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5150661240427794</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#N/A</v>
+        <v>0.27609440361293197</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.005147639194725162</v>
+        <v>0.9264501099011717</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6229512724018456</v>
+        <v>0.22907152402348221</v>
       </c>
       <c r="G4" t="n">
-        <v>0.015614291088699161</v>
+        <v>0.9141792475183748</v>
       </c>
       <c r="H4" t="n">
-        <v>5.780265155408415E-12</v>
+        <v>0.9509918346667655</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7139721266721637</v>
+        <v>-0.8160123484559989</v>
       </c>
       <c r="J4" t="n">
-        <v>0.40635895869739036</v>
+        <v>-0.9019083851355776</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9539505702808961</v>
+        <v>0.06748974310538337</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6094375977404292</v>
+        <v>0.5092407888860745</v>
       </c>
       <c r="M4" t="n">
-        <v>0.48674316765531334</v>
+        <v>-0.9130434782608696</v>
       </c>
       <c r="N4" t="n">
-        <v>0.38020313899596836</v>
+        <v>0.7423871741592171</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5262119362135877</v>
+        <v>-0.4233447522064957</v>
       </c>
       <c r="P4" t="n">
-        <v>0.812183306897635</v>
+        <v>0.18462325038887686</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3804106194868986</v>
+        <v>0.7938799766721705</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9919500029155792</v>
+        <v>0.03067715595699244</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9832656536285704</v>
+        <v>0.11657319263657127</v>
       </c>
     </row>
     <row r="5">
@@ -2621,58 +2621,58 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.8472549726311627E-5</v>
+        <v>0.9515151515151513</v>
       </c>
       <c r="C5" t="n">
-        <v>0.524075223553256</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="D5" t="n">
-        <v>0.005147639194725162</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#N/A</v>
+        <v>0.9264501099011717</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4959497240305968</v>
+        <v>-0.019395245515057075</v>
       </c>
       <c r="G5" t="n">
-        <v>1.2176910535455221E-4</v>
+        <v>0.9515151515151513</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0030951773034990637</v>
+        <v>0.9515151515151513</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07506280129858545</v>
+        <v>-0.7454545454545454</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09821846628310071</v>
+        <v>-0.9878787878787877</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9510077356332016</v>
+        <v>-0.0909090909090909</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3981730147216447</v>
+        <v>0.39393939393939387</v>
       </c>
       <c r="M5" t="n">
-        <v>0.19726920820503224</v>
+        <v>-0.791470623690405</v>
       </c>
       <c r="N5" t="n">
-        <v>0.024385670230105294</v>
+        <v>0.8424242424242423</v>
       </c>
       <c r="O5" t="n">
-        <v>0.46302282079171553</v>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7904950624854434</v>
+        <v>0.21884599572482324</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.024956287611237027</v>
+        <v>0.7294866524160776</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8152301426229378</v>
+        <v>0.10303030303030301</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8119666197201483</v>
+        <v>0.1515151515151515</v>
       </c>
     </row>
     <row r="6">
@@ -2680,58 +2680,58 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4701120688689837</v>
+        <v>-0.16162704595880897</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08848795497993045</v>
+        <v>0.7305542477338166</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6229512724018456</v>
+        <v>0.22907152402348221</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4959497240305968</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#N/A</v>
+        <v>-0.019395245515057075</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.761887960266465</v>
+        <v>0.09697622757528539</v>
       </c>
       <c r="H6" t="n">
-        <v>0.625603430911438</v>
+        <v>0.13576671860539954</v>
       </c>
       <c r="I6" t="n">
-        <v>0.748551984571239</v>
+        <v>-0.2779985190491514</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5367138411009456</v>
+        <v>0.08404606389858067</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4052752036114191</v>
+        <v>0.08404606389858067</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5227241505646747</v>
+        <v>0.09697622757528539</v>
       </c>
       <c r="M6" t="n">
-        <v>0.563628502296081</v>
+        <v>-0.22907152402348221</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6479389291086697</v>
+        <v>-0.09697622757528539</v>
       </c>
       <c r="O6" t="n">
-        <v>0.917295334346427</v>
+        <v>-0.3038588464025609</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6340039827192743</v>
+        <v>0.09727143747452265</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7912458704675451</v>
+        <v>0.2593904999320604</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6480544742138692</v>
+        <v>0.14869688228210426</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7247378661750783</v>
+        <v>0.07111590022187596</v>
       </c>
     </row>
     <row r="7">
@@ -2739,58 +2739,58 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.098280429680745E-4</v>
+        <v>0.915151515151515</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1871990426492962</v>
+        <v>0.29696969696969694</v>
       </c>
       <c r="D7" t="n">
-        <v>0.015614291088699161</v>
+        <v>0.9141792475183748</v>
       </c>
       <c r="E7" t="n">
-        <v>1.2176910535455221E-4</v>
+        <v>0.9515151515151513</v>
       </c>
       <c r="F7" t="n">
-        <v>0.761887960266465</v>
-      </c>
-      <c r="G7" t="e">
-        <v>#N/A</v>
+        <v>0.09697622757528539</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01037174280345532</v>
+        <v>0.9757575757575756</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08528840554048989</v>
+        <v>-0.7333333333333333</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01896655559436833</v>
+        <v>-0.9393939393939392</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6478188215016938</v>
+        <v>-0.0303030303030303</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6346806556418654</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="M7" t="n">
-        <v>0.21235555869718992</v>
+        <v>-0.8037414860732018</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01646260263232735</v>
+        <v>0.8303030303030301</v>
       </c>
       <c r="O7" t="n">
-        <v>0.566089286295143</v>
+        <v>-0.3575757575757575</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5521012435866615</v>
+        <v>0.2674784392192284</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.011233484338418975</v>
+        <v>0.7538028741632801</v>
       </c>
       <c r="R7" t="n">
-        <v>0.896945926580031</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5991363557452134</v>
+        <v>0.13939393939393938</v>
       </c>
     </row>
     <row r="8">
@@ -2798,58 +2798,58 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02650831664264297</v>
+        <v>0.8787878787878787</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5840088355460207</v>
+        <v>0.29696969696969694</v>
       </c>
       <c r="D8" t="n">
-        <v>5.780265155408415E-12</v>
+        <v>0.9509918346667655</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0030951773034990637</v>
+        <v>0.9515151515151513</v>
       </c>
       <c r="F8" t="n">
-        <v>0.625603430911438</v>
+        <v>0.13576671860539954</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01037174280345532</v>
-      </c>
-      <c r="H8" t="e">
-        <v>#N/A</v>
+        <v>0.9757575757575756</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6363187957277416</v>
+        <v>-0.7939393939393938</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3575106786630733</v>
+        <v>-0.9393939393939392</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9713977071757525</v>
+        <v>-0.06666666666666667</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6020296685847668</v>
+        <v>0.36969696969696964</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4606808626696095</v>
+        <v>-0.8405540732215928</v>
       </c>
       <c r="N8" t="n">
-        <v>0.32203239260900296</v>
+        <v>0.8181818181818181</v>
       </c>
       <c r="O8" t="n">
-        <v>0.519052726527077</v>
+        <v>-0.32121212121212117</v>
       </c>
       <c r="P8" t="n">
-        <v>0.78489208521755</v>
+        <v>0.291794660966431</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3218237494916616</v>
+        <v>0.8024353176576852</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9811307640824478</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9786085907141251</v>
+        <v>0.17575757575757575</v>
       </c>
     </row>
     <row r="9">
@@ -2857,58 +2857,58 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.020849992151350305</v>
+        <v>-0.7333333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.12770353480909447</v>
+        <v>-0.43030303030303024</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7139721266721637</v>
+        <v>-0.8160123484559989</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07506280129858545</v>
+        <v>-0.7454545454545454</v>
       </c>
       <c r="F9" t="n">
-        <v>0.748551984571239</v>
+        <v>-0.2779985190491514</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08528840554048989</v>
+        <v>-0.7333333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6363187957277416</v>
-      </c>
-      <c r="I9" t="e">
-        <v>#N/A</v>
+        <v>-0.7939393939393938</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03938401452893414</v>
+        <v>0.7212121212121211</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8047903700885033</v>
+        <v>-0.0909090909090909</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9229336027659534</v>
+        <v>-0.2242424242424242</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2657801701561422</v>
+        <v>0.6442202750968412</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0069192832626221445</v>
+        <v>-0.8666666666666666</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6315044698660603</v>
+        <v>0.2363636363636363</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1163133368413991</v>
+        <v>-0.23708316203522517</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.3266317838711572E-4</v>
+        <v>-0.9361745372672994</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3325261600941416</v>
+        <v>-0.1515151515151515</v>
       </c>
       <c r="S9" t="n">
-        <v>0.04405157954988015</v>
+        <v>-0.5030303030303029</v>
       </c>
     </row>
     <row r="10">
@@ -2916,58 +2916,58 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02077620889221743</v>
+        <v>-0.9393939393939392</v>
       </c>
       <c r="C10" t="n">
-        <v>0.11353264129399943</v>
+        <v>-0.18787878787878787</v>
       </c>
       <c r="D10" t="n">
-        <v>0.40635895869739036</v>
+        <v>-0.9019083851355776</v>
       </c>
       <c r="E10" t="n">
-        <v>0.09821846628310071</v>
+        <v>-0.9878787878787877</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5367138411009456</v>
+        <v>0.08404606389858067</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01896655559436833</v>
+        <v>-0.9393939393939392</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3575106786630733</v>
+        <v>-0.9393939393939392</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03938401452893414</v>
-      </c>
-      <c r="J10" t="e">
-        <v>#N/A</v>
+        <v>0.7212121212121211</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1573376523249368</v>
+        <v>0.10303030303030301</v>
       </c>
       <c r="L10" t="n">
-        <v>0.27209488856133723</v>
+        <v>-0.406060606060606</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9097085893789274</v>
+        <v>0.766928898924811</v>
       </c>
       <c r="N10" t="n">
-        <v>9.614601685870028E-4</v>
+        <v>-0.8303030303030301</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4952805831837841</v>
+        <v>0.18787878787878787</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06937889641975836</v>
+        <v>-0.18845071854082002</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.035857671390798096</v>
+        <v>-0.7538028741632801</v>
       </c>
       <c r="R10" t="n">
-        <v>0.12625270408348688</v>
+        <v>-0.0909090909090909</v>
       </c>
       <c r="S10" t="n">
-        <v>0.08928723454294607</v>
+        <v>-0.12727272727272726</v>
       </c>
     </row>
     <row r="11">
@@ -2975,58 +2975,58 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8792686849849116</v>
+        <v>0.10303030303030301</v>
       </c>
       <c r="C11" t="n">
-        <v>0.46208512187335105</v>
+        <v>-0.2242424242424242</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9539505702808961</v>
+        <v>0.06748974310538337</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9510077356332016</v>
+        <v>-0.0909090909090909</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4052752036114191</v>
+        <v>0.08404606389858067</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6478188215016938</v>
+        <v>-0.0303030303030303</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9713977071757525</v>
+        <v>-0.06666666666666667</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8047903700885033</v>
+        <v>-0.0909090909090909</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1573376523249368</v>
-      </c>
-      <c r="K11" t="e">
-        <v>#N/A</v>
+        <v>0.10303030303030301</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005387031323382141</v>
+        <v>0.47878787878787876</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8392097075987621</v>
+        <v>0.0061354311913984876</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5575970316237049</v>
+        <v>-0.054545454545454536</v>
       </c>
       <c r="O11" t="n">
-        <v>8.619286460711528E-4</v>
+        <v>-0.7696969696969695</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1464334316775613</v>
+        <v>0.16413449679361744</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7798997549124072</v>
+        <v>0.04863244349440517</v>
       </c>
       <c r="R11" t="n">
-        <v>0.370056060218209</v>
+        <v>0.10303030303030301</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5843507562721073</v>
+        <v>0.24848484848484845</v>
       </c>
     </row>
     <row r="12">
@@ -3034,58 +3034,58 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.584298294486898</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="C12" t="n">
-        <v>0.883644724887048</v>
+        <v>0.11515151515151514</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6094375977404292</v>
+        <v>0.5092407888860745</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3981730147216447</v>
+        <v>0.39393939393939387</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5227241505646747</v>
+        <v>0.09697622757528539</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6346806556418654</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6020296685847668</v>
+        <v>0.36969696969696964</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9229336027659534</v>
+        <v>-0.2242424242424242</v>
       </c>
       <c r="J12" t="n">
-        <v>0.27209488856133723</v>
+        <v>-0.406060606060606</v>
       </c>
       <c r="K12" t="n">
-        <v>0.005387031323382141</v>
-      </c>
-      <c r="L12" t="e">
-        <v>#N/A</v>
+        <v>0.47878787878787876</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.21277738115943112</v>
+        <v>-0.6196785503312472</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8004314700905704</v>
+        <v>0.2242424242424242</v>
       </c>
       <c r="O12" t="n">
-        <v>0.003141946477532187</v>
+        <v>-0.7696969696969695</v>
       </c>
       <c r="P12" t="n">
-        <v>0.013517749746006391</v>
+        <v>-0.3525852153344375</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8520249009700882</v>
+        <v>0.3161108827136336</v>
       </c>
       <c r="R12" t="n">
-        <v>0.018384646160443996</v>
+        <v>-0.47878787878787876</v>
       </c>
       <c r="S12" t="n">
-        <v>0.11443573198564305</v>
+        <v>-0.39393939393939387</v>
       </c>
     </row>
     <row r="13">
@@ -3093,58 +3093,58 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.413059169360257</v>
+        <v>-0.6810328622452322</v>
       </c>
       <c r="C13" t="n">
-        <v>0.20338274633517628</v>
+        <v>-0.30063612837852594</v>
       </c>
       <c r="D13" t="n">
-        <v>0.48674316765531334</v>
+        <v>-0.9130434782608696</v>
       </c>
       <c r="E13" t="n">
-        <v>0.19726920820503224</v>
+        <v>-0.791470623690405</v>
       </c>
       <c r="F13" t="n">
-        <v>0.563628502296081</v>
+        <v>-0.22907152402348221</v>
       </c>
       <c r="G13" t="n">
-        <v>0.21235555869718992</v>
+        <v>-0.8037414860732018</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4606808626696095</v>
+        <v>-0.8405540732215928</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2657801701561422</v>
+        <v>0.6442202750968412</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9097085893789274</v>
+        <v>0.766928898924811</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8392097075987621</v>
+        <v>0.0061354311913984876</v>
       </c>
       <c r="L13" t="n">
-        <v>0.21277738115943112</v>
-      </c>
-      <c r="M13" t="e">
-        <v>#N/A</v>
+        <v>-0.6196785503312472</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9459948781739806</v>
+        <v>-0.5705951008000594</v>
       </c>
       <c r="O13" t="n">
-        <v>0.20016416243992063</v>
+        <v>0.49696992650327754</v>
       </c>
       <c r="P13" t="n">
-        <v>0.6797982323981593</v>
+        <v>0.14769860031110146</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0903930532408106</v>
+        <v>-0.646181376361069</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2162222062962127</v>
+        <v>0.3251778531441199</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7115066129045893</v>
+        <v>0.251552678847338</v>
       </c>
     </row>
     <row r="14">
@@ -3152,58 +3152,58 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0013497703894134183</v>
+        <v>0.8909090909090908</v>
       </c>
       <c r="C14" t="n">
-        <v>0.19196329378672905</v>
+        <v>0.26060606060606056</v>
       </c>
       <c r="D14" t="n">
-        <v>0.38020313899596836</v>
+        <v>0.7423871741592171</v>
       </c>
       <c r="E14" t="n">
-        <v>0.024385670230105294</v>
+        <v>0.8424242424242423</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6479389291086697</v>
+        <v>-0.09697622757528539</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01646260263232735</v>
+        <v>0.8303030303030301</v>
       </c>
       <c r="H14" t="n">
-        <v>0.32203239260900296</v>
+        <v>0.8181818181818181</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0069192832626221445</v>
+        <v>-0.8666666666666666</v>
       </c>
       <c r="J14" t="n">
-        <v>9.614601685870028E-4</v>
+        <v>-0.8303030303030301</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5575970316237049</v>
+        <v>-0.054545454545454536</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8004314700905704</v>
+        <v>0.2242424242424242</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9459948781739806</v>
-      </c>
-      <c r="N14" t="e">
-        <v>#N/A</v>
+        <v>-0.5705951008000594</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9231516680752567</v>
+        <v>-0.0909090909090909</v>
       </c>
       <c r="P14" t="n">
-        <v>0.19113342960313928</v>
+        <v>0.21884599572482324</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.013980748876575966</v>
+        <v>0.8145934285312866</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2959406645442848</v>
+        <v>0.11515151515151514</v>
       </c>
       <c r="S14" t="n">
-        <v>0.13316029850918443</v>
+        <v>0.43030303030303024</v>
       </c>
     </row>
     <row r="15">
@@ -3211,58 +3211,58 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6091468940581506</v>
+        <v>-0.2727272727272727</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9102237832237652</v>
+        <v>-0.0909090909090909</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5262119362135877</v>
+        <v>-0.4233447522064957</v>
       </c>
       <c r="E15" t="n">
-        <v>0.46302282079171553</v>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="F15" t="n">
-        <v>0.917295334346427</v>
+        <v>-0.3038588464025609</v>
       </c>
       <c r="G15" t="n">
-        <v>0.566089286295143</v>
+        <v>-0.3575757575757575</v>
       </c>
       <c r="H15" t="n">
-        <v>0.519052726527077</v>
+        <v>-0.32121212121212117</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6315044698660603</v>
+        <v>0.2363636363636363</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4952805831837841</v>
+        <v>0.18787878787878787</v>
       </c>
       <c r="K15" t="n">
-        <v>8.619286460711528E-4</v>
+        <v>-0.7696969696969695</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003141946477532187</v>
+        <v>-0.7696969696969695</v>
       </c>
       <c r="M15" t="n">
-        <v>0.20016416243992063</v>
+        <v>0.49696992650327754</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9231516680752567</v>
-      </c>
-      <c r="O15" t="e">
-        <v>#N/A</v>
+        <v>-0.0909090909090909</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3601406652671231</v>
+        <v>0.012158110873601292</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.41388424109565625</v>
+        <v>-0.27963655009282967</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4521030012273637</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8998969244566388</v>
+        <v>0.12727272727272726</v>
       </c>
     </row>
     <row r="16">
@@ -3270,58 +3270,58 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5875098652020516</v>
+        <v>0.2674784392192284</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8173872113839351</v>
+        <v>-0.20668788485122194</v>
       </c>
       <c r="D16" t="n">
-        <v>0.812183306897635</v>
+        <v>0.18462325038887686</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7904950624854434</v>
+        <v>0.21884599572482324</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6340039827192743</v>
+        <v>0.09727143747452265</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5521012435866615</v>
+        <v>0.2674784392192284</v>
       </c>
       <c r="H16" t="n">
-        <v>0.78489208521755</v>
+        <v>0.291794660966431</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1163133368413991</v>
+        <v>-0.23708316203522517</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06937889641975836</v>
+        <v>-0.18845071854082002</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1464334316775613</v>
+        <v>0.16413449679361744</v>
       </c>
       <c r="L16" t="n">
-        <v>0.013517749746006391</v>
+        <v>-0.3525852153344375</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6797982323981593</v>
+        <v>0.14769860031110146</v>
       </c>
       <c r="N16" t="n">
-        <v>0.19113342960313928</v>
+        <v>0.21884599572482324</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3601406652671231</v>
-      </c>
-      <c r="P16" t="e">
-        <v>#N/A</v>
+        <v>0.012158110873601292</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1500557826587683</v>
+        <v>0.15243902439024393</v>
       </c>
       <c r="R16" t="n">
-        <v>8.301439109770214E-5</v>
+        <v>0.9422535927041</v>
       </c>
       <c r="S16" t="n">
-        <v>7.605788991993379E-5</v>
+        <v>0.772040040473682</v>
       </c>
     </row>
     <row r="17">
@@ -3329,58 +3329,58 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.013866428346201776</v>
+        <v>0.6930123197952736</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06612243479259128</v>
+        <v>0.5167197121280549</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3804106194868986</v>
+        <v>0.7938799766721705</v>
       </c>
       <c r="E17" t="n">
-        <v>0.024956287611237027</v>
+        <v>0.7294866524160776</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7912458704675451</v>
+        <v>0.2593904999320604</v>
       </c>
       <c r="G17" t="n">
-        <v>0.011233484338418975</v>
+        <v>0.7538028741632801</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3218237494916616</v>
+        <v>0.8024353176576852</v>
       </c>
       <c r="I17" t="n">
-        <v>1.3266317838711572E-4</v>
+        <v>-0.9361745372672994</v>
       </c>
       <c r="J17" t="n">
-        <v>0.035857671390798096</v>
+        <v>-0.7538028741632801</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7798997549124072</v>
+        <v>0.04863244349440517</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8520249009700882</v>
+        <v>0.3161108827136336</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0903930532408106</v>
+        <v>-0.646181376361069</v>
       </c>
       <c r="N17" t="n">
-        <v>0.013980748876575966</v>
+        <v>0.8145934285312866</v>
       </c>
       <c r="O17" t="n">
-        <v>0.41388424109565625</v>
+        <v>-0.27963655009282967</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1500557826587683</v>
-      </c>
-      <c r="Q17" t="e">
-        <v>#N/A</v>
+        <v>0.15243902439024393</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4438839359307596</v>
+        <v>0.10942299786241162</v>
       </c>
       <c r="S17" t="n">
-        <v>0.08163572942602815</v>
+        <v>0.37690143708164003</v>
       </c>
     </row>
     <row r="18">
@@ -3388,58 +3388,58 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8893701344518976</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8589991859238184</v>
+        <v>-0.06666666666666667</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9919500029155792</v>
+        <v>0.03067715595699244</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8152301426229378</v>
+        <v>0.10303030303030301</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6480544742138692</v>
+        <v>0.14869688228210426</v>
       </c>
       <c r="G18" t="n">
-        <v>0.896945926580031</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9811307640824478</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3325261600941416</v>
+        <v>-0.1515151515151515</v>
       </c>
       <c r="J18" t="n">
-        <v>0.12625270408348688</v>
+        <v>-0.0909090909090909</v>
       </c>
       <c r="K18" t="n">
-        <v>0.370056060218209</v>
+        <v>0.10303030303030301</v>
       </c>
       <c r="L18" t="n">
-        <v>0.018384646160443996</v>
+        <v>-0.47878787878787876</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2162222062962127</v>
+        <v>0.3251778531441199</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2959406645442848</v>
+        <v>0.11515151515151514</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4521030012273637</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="P18" t="n">
-        <v>8.301439109770214E-5</v>
+        <v>0.9422535927041</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.4438839359307596</v>
-      </c>
-      <c r="R18" t="e">
-        <v>#N/A</v>
+        <v>0.10942299786241162</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.0</v>
       </c>
       <c r="S18" t="n">
-        <v>1.5584296323467584E-4</v>
+        <v>0.7818181818181817</v>
       </c>
     </row>
     <row r="19">
@@ -3447,58 +3447,58 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.528270130970117</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6870165409408504</v>
+        <v>-0.0303030303030303</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9832656536285704</v>
+        <v>0.11657319263657127</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8119666197201483</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7247378661750783</v>
+        <v>0.07111590022187596</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5991363557452134</v>
+        <v>0.13939393939393938</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9786085907141251</v>
+        <v>0.17575757575757575</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04405157954988015</v>
+        <v>-0.5030303030303029</v>
       </c>
       <c r="J19" t="n">
-        <v>0.08928723454294607</v>
+        <v>-0.12727272727272726</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5843507562721073</v>
+        <v>0.24848484848484845</v>
       </c>
       <c r="L19" t="n">
-        <v>0.11443573198564305</v>
+        <v>-0.39393939393939387</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7115066129045893</v>
+        <v>0.251552678847338</v>
       </c>
       <c r="N19" t="n">
-        <v>0.13316029850918443</v>
+        <v>0.43030303030303024</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8998969244566388</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="P19" t="n">
-        <v>7.605788991993379E-5</v>
+        <v>0.772040040473682</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.08163572942602815</v>
+        <v>0.37690143708164003</v>
       </c>
       <c r="R19" t="n">
-        <v>1.5584296323467584E-4</v>
-      </c>
-      <c r="S19" t="e">
-        <v>#N/A</v>
+        <v>0.7818181818181817</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Correlacao/Correlacao.xlsx
+++ b/Resultados/Correlacao/Correlacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="19">
   <si>
     <t>V3</t>
   </si>
@@ -69,6 +69,9 @@
   <si>
     <t>V20</t>
   </si>
+  <si>
+    <t>V21</t>
+  </si>
 </sst>
 </file>
 
@@ -174,6 +177,9 @@
       <c r="S1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -201,37 +207,40 @@
         <v>0.7454545454545454</v>
       </c>
       <c r="I2" t="n">
+        <v>0.10303030303030301</v>
+      </c>
+      <c r="J2" t="n">
         <v>-0.24848484848484845</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>-0.4863244349440517</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.32121212121212117</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.2848484848484848</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>-0.32121212121212117</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.10303030303030301</v>
-      </c>
       <c r="O2" t="n">
-        <v>-0.018181818181818177</v>
+        <v>-0.06666666666666667</v>
       </c>
       <c r="P2" t="n">
-        <v>0.06666666666666667</v>
+        <v>-0.5515151515151514</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.04893172289450491</v>
+        <v>-0.06666666666666667</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.018181818181818177</v>
+        <v>-0.04268372033233729</v>
       </c>
       <c r="S2" t="n">
-        <v>0.26060606060606056</v>
+        <v>-0.44242424242424233</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.1636363636363636</v>
       </c>
     </row>
     <row r="3">
@@ -260,37 +269,40 @@
         <v>0.5636363636363636</v>
       </c>
       <c r="I3" t="n">
+        <v>0.00606060606060606</v>
+      </c>
+      <c r="J3" t="n">
         <v>-0.32121212121212117</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>-0.49848254581765294</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.2727272727272727</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.2242424242424242</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>-0.3454545454545454</v>
       </c>
-      <c r="N3" t="n">
-        <v>0.0303030303030303</v>
-      </c>
       <c r="O3" t="n">
-        <v>-0.19999999999999996</v>
+        <v>-0.04242424242424242</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06666666666666667</v>
+        <v>-0.47878787878787876</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.31805619881428193</v>
+        <v>-0.018181818181818177</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0303030303030303</v>
+        <v>0.32317673965912525</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.07878787878787878</v>
+        <v>-0.29696969696969694</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.3454545454545454</v>
       </c>
     </row>
     <row r="4">
@@ -319,37 +331,40 @@
         <v>0.7317209199829251</v>
       </c>
       <c r="I4" t="n">
+        <v>-0.1036604636642477</v>
+      </c>
+      <c r="J4" t="n">
         <v>-0.34146976265869833</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>-0.4006134940681701</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.22561395032806852</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.32317673965912525</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>-0.3780558086578446</v>
       </c>
-      <c r="N4" t="n">
-        <v>-0.09756278933105667</v>
-      </c>
       <c r="O4" t="n">
-        <v>-0.35976278565827147</v>
+        <v>-0.14024650966339394</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.018293022999573125</v>
+        <v>-0.5731813873199579</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.07384650341622818</v>
+        <v>-0.09146511499786564</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.34146976265869833</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.03048837166595521</v>
+        <v>-0.4939116209884744</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.18293022999573127</v>
       </c>
     </row>
     <row r="5">
@@ -378,37 +393,40 @@
         <v>0.915151515151515</v>
       </c>
       <c r="I5" t="n">
+        <v>0.2363636363636363</v>
+      </c>
+      <c r="J5" t="n">
         <v>-0.7333333333333333</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>-0.8936211492096948</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.6969696969696969</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.7696969696969695</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>-0.7818181818181817</v>
       </c>
-      <c r="N5" t="n">
-        <v>0.5393939393939393</v>
-      </c>
       <c r="O5" t="n">
-        <v>-0.18787878787878787</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="P5" t="n">
-        <v>0.44242424242424233</v>
+        <v>-0.6969696969696969</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5688312786486197</v>
+        <v>0.36969696969696964</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.24848484848484845</v>
+        <v>0.5304976669876206</v>
       </c>
       <c r="S5" t="n">
-        <v>0.18787878787878787</v>
+        <v>-0.709090909090909</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.2727272727272727</v>
       </c>
     </row>
     <row r="6">
@@ -437,37 +455,40 @@
         <v>-0.16434977710076598</v>
       </c>
       <c r="I6" t="n">
+        <v>0.11244984748999777</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.008649988268461367</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>0.16485008199352866</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>-0.18164975363768873</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>-0.27679962459076374</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.16434977710076598</v>
       </c>
-      <c r="N6" t="n">
-        <v>0.017299976536922734</v>
-      </c>
       <c r="O6" t="n">
-        <v>0.20759971844307282</v>
+        <v>-0.07784989441615231</v>
       </c>
       <c r="P6" t="n">
         <v>0.11244984748999777</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.257526543765471</v>
+        <v>0.017299976536922734</v>
       </c>
       <c r="R6" t="n">
-        <v>0.39789946034922286</v>
+        <v>0.25673536971827493</v>
       </c>
       <c r="S6" t="n">
-        <v>0.017299976536922734</v>
+        <v>0.3027495893961479</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.07784989441615231</v>
       </c>
     </row>
     <row r="7">
@@ -496,37 +517,40 @@
         <v>0.43030303030303024</v>
       </c>
       <c r="I7" t="n">
+        <v>-0.49090909090909085</v>
+      </c>
+      <c r="J7" t="n">
         <v>-0.41818181818181815</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>-0.6565379871744698</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.5878787878787879</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.49090909090909085</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>-0.6363636363636362</v>
       </c>
-      <c r="N7" t="n">
-        <v>0.018181818181818177</v>
-      </c>
       <c r="O7" t="n">
-        <v>-0.4666666666666666</v>
+        <v>-0.04242424242424242</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.2242424242424242</v>
+        <v>-0.7939393939393938</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.018349396085439344</v>
+        <v>-0.29696969696969694</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.3575757575757575</v>
+        <v>0.024390697332764166</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.26060606060606056</v>
+        <v>-0.6727272727272726</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.5757575757575757</v>
       </c>
     </row>
     <row r="8">
@@ -555,37 +579,40 @@
         <v>1.0</v>
       </c>
       <c r="I8" t="n">
+        <v>0.2848484848484848</v>
+      </c>
+      <c r="J8" t="n">
         <v>-0.7212121212121211</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>-0.8206724839680872</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>0.45454545454545453</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>0.6363636363636362</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>-0.6969696969696969</v>
       </c>
-      <c r="N8" t="n">
-        <v>0.36969696969696964</v>
-      </c>
       <c r="O8" t="n">
-        <v>-0.24848484848484845</v>
+        <v>0.24848484848484845</v>
       </c>
       <c r="P8" t="n">
-        <v>0.39393939393939387</v>
+        <v>-0.7575757575757575</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.5321324864777409</v>
+        <v>0.2848484848484848</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.24848484848484845</v>
+        <v>0.4878139466552834</v>
       </c>
       <c r="S8" t="n">
-        <v>0.054545454545454536</v>
+        <v>-0.6969696969696969</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.39393939393939387</v>
       </c>
     </row>
     <row r="9">
@@ -593,58 +620,61 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.24848484848484845</v>
+        <v>0.10303030303030301</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.32121212121212117</v>
+        <v>0.00606060606060606</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.34146976265869833</v>
+        <v>-0.1036604636642477</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7333333333333333</v>
+        <v>0.2363636363636363</v>
       </c>
       <c r="F9" t="n">
-        <v>0.008649988268461367</v>
+        <v>0.11244984748999777</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.41818181818181815</v>
+        <v>-0.49090909090909085</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.7212121212121211</v>
+        <v>0.2848484848484848</v>
       </c>
       <c r="I9" t="n">
         <v>1.0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8936211492096948</v>
+        <v>-0.26060606060606056</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.6242424242424242</v>
+        <v>-0.22492505116162387</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.9393939393939392</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9515151515151513</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.5878787878787879</v>
+        <v>-0.06666666666666667</v>
       </c>
       <c r="O9" t="n">
-        <v>0.43030303030303024</v>
+        <v>0.41818181818181815</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.5757575757575757</v>
+        <v>0.13939393939393938</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.7523252395030131</v>
+        <v>0.7939393939393938</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.5304976669876206</v>
       </c>
       <c r="S9" t="n">
-        <v>0.17575757575757575</v>
+        <v>0.018181818181818177</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.054545454545454536</v>
       </c>
     </row>
     <row r="10">
@@ -652,58 +682,61 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.4863244349440517</v>
+        <v>-0.24848484848484845</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.49848254581765294</v>
+        <v>-0.32121212121212117</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.4006134940681701</v>
+        <v>-0.34146976265869833</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8936211492096948</v>
+        <v>-0.7333333333333333</v>
       </c>
       <c r="F10" t="n">
-        <v>0.16485008199352866</v>
+        <v>0.008649988268461367</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.6565379871744698</v>
+        <v>-0.41818181818181815</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.8206724839680872</v>
+        <v>-0.7212121212121211</v>
       </c>
       <c r="I10" t="n">
+        <v>-0.26060606060606056</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.8936211492096948</v>
       </c>
-      <c r="J10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-0.7538028741632801</v>
-      </c>
       <c r="L10" t="n">
-        <v>-0.8814630383360936</v>
+        <v>-0.6242424242424242</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9422535927041</v>
+        <v>-0.9393939393939392</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.5471149893120582</v>
+        <v>0.9515151515151513</v>
       </c>
       <c r="O10" t="n">
-        <v>0.32218993815043423</v>
+        <v>-0.6</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.4863244349440517</v>
+        <v>0.6969696969696969</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.6349812749303677</v>
+        <v>-0.5757575757575757</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3829804925184407</v>
+        <v>-0.7744046403152622</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0790277206784084</v>
+        <v>0.806060606060606</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4666666666666666</v>
       </c>
     </row>
     <row r="11">
@@ -711,58 +744,61 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.32121212121212117</v>
+        <v>-0.4863244349440517</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2727272727272727</v>
+        <v>-0.49848254581765294</v>
       </c>
       <c r="D11" t="n">
-        <v>0.22561395032806852</v>
+        <v>-0.4006134940681701</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6969696969696969</v>
+        <v>-0.8936211492096948</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.18164975363768873</v>
+        <v>0.16485008199352866</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5878787878787879</v>
+        <v>-0.6565379871744698</v>
       </c>
       <c r="H11" t="n">
-        <v>0.45454545454545453</v>
+        <v>-0.8206724839680872</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6242424242424242</v>
+        <v>-0.22492505116162387</v>
       </c>
       <c r="J11" t="n">
+        <v>0.8936211492096948</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L11" t="n">
         <v>-0.7538028741632801</v>
       </c>
-      <c r="K11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.7212121212121211</v>
-      </c>
       <c r="M11" t="n">
-        <v>-0.7454545454545454</v>
+        <v>-0.8814630383360936</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6727272727272726</v>
+        <v>0.9422535927041</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0303030303030303</v>
+        <v>-0.4620082131968491</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5515151515151514</v>
+        <v>0.8328305948416884</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6361123976285639</v>
+        <v>-0.4255338805760452</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.10303030303030301</v>
+        <v>-0.6024493002399199</v>
       </c>
       <c r="S11" t="n">
-        <v>0.29696969696969694</v>
+        <v>0.8814630383360936</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.5775102664960613</v>
       </c>
     </row>
     <row r="12">
@@ -770,58 +806,61 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2848484848484848</v>
+        <v>0.32121212121212117</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2242424242424242</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D12" t="n">
-        <v>0.32317673965912525</v>
+        <v>0.22561395032806852</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7696969696969695</v>
+        <v>0.6969696969696969</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.27679962459076374</v>
+        <v>-0.18164975363768873</v>
       </c>
       <c r="G12" t="n">
-        <v>0.49090909090909085</v>
+        <v>0.5878787878787879</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6363636363636362</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.9393939393939392</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.8814630383360936</v>
+        <v>-0.6242424242424242</v>
       </c>
       <c r="K12" t="n">
+        <v>-0.7538028741632801</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M12" t="n">
         <v>0.7212121212121211</v>
       </c>
-      <c r="L12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-0.9636363636363636</v>
-      </c>
       <c r="N12" t="n">
+        <v>-0.7454545454545454</v>
+      </c>
+      <c r="O12" t="n">
         <v>0.6</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>-0.4666666666666666</v>
       </c>
-      <c r="P12" t="n">
-        <v>0.49090909090909085</v>
-      </c>
       <c r="Q12" t="n">
-        <v>0.6483453283521902</v>
+        <v>0.5030303030303029</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.6</v>
+        <v>0.6036697589859131</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.13939393939393938</v>
+        <v>-0.5878787878787879</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.18787878787878787</v>
       </c>
     </row>
     <row r="13">
@@ -829,58 +868,61 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.32121212121212117</v>
+        <v>0.2848484848484848</v>
       </c>
       <c r="C13" t="n">
+        <v>0.2242424242424242</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.32317673965912525</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7696969696969695</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.27679962459076374</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.49090909090909085</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.6363636363636362</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.12727272727272726</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.9393939393939392</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.8814630383360936</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.7212121212121211</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.9636363636363636</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.6727272727272726</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.6363636363636362</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.5393939393939393</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.6890371996505877</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.806060606060606</v>
+      </c>
+      <c r="T13" t="n">
         <v>-0.3454545454545454</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.3780558086578446</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-0.7818181818181817</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.16434977710076598</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.6363636363636362</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-0.6969696969696969</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.9515151515151513</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.9422535927041</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-0.7454545454545454</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-0.9636363636363636</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-0.5151515151515151</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.5030303030303029</v>
-      </c>
-      <c r="P13" t="n">
-        <v>-0.43030303030303024</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>-0.6177630015431246</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.5878787878787879</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.2242424242424242</v>
       </c>
     </row>
     <row r="14">
@@ -888,58 +930,61 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.10303030303030301</v>
+        <v>-0.32121212121212117</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0303030303030303</v>
+        <v>-0.3454545454545454</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.09756278933105667</v>
+        <v>-0.3780558086578446</v>
       </c>
       <c r="E14" t="n">
+        <v>-0.7818181818181817</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.16434977710076598</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.6363636363636362</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.6969696969696969</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.06666666666666667</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9515151515151513</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.9422535927041</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.7454545454545454</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.9636363636363636</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-0.5272727272727272</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.7939393939393938</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.43030303030303024</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-0.6402558049850594</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.903030303030303</v>
+      </c>
+      <c r="T14" t="n">
         <v>0.5393939393939393</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.017299976536922734</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.018181818181818177</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.36969696969696964</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-0.5878787878787879</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-0.5471149893120582</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.6727272727272726</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M14" t="n">
-        <v>-0.5151515151515151</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.36969696969696964</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.8424242424242423</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.850188685292023</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.18787878787878787</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.5878787878787879</v>
       </c>
     </row>
     <row r="15">
@@ -947,58 +992,61 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.018181818181818177</v>
+        <v>-0.06666666666666667</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.19999999999999996</v>
+        <v>-0.04242424242424242</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.35976278565827147</v>
+        <v>-0.14024650966339394</v>
       </c>
       <c r="E15" t="n">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.07784989441615231</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.04242424242424242</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.24848484848484845</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.41818181818181815</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.4620082131968491</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6727272727272726</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.5272727272727272</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.04242424242424242</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.806060606060606</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.8170883606475996</v>
+      </c>
+      <c r="S15" t="n">
         <v>-0.18787878787878787</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.20759971844307282</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.4666666666666666</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-0.24848484848484845</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.43030303030303024</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.32218993815043423</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-0.4666666666666666</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.5030303030303029</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.36969696969696964</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.406060606060606</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.1712610301307672</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.9393939393939392</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.8424242424242423</v>
+      <c r="T15" t="n">
+        <v>0.29696969696969694</v>
       </c>
     </row>
     <row r="16">
@@ -1006,58 +1054,61 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06666666666666667</v>
+        <v>-0.5515151515151514</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06666666666666667</v>
+        <v>-0.47878787878787876</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.018293022999573125</v>
+        <v>-0.5731813873199579</v>
       </c>
       <c r="E16" t="n">
-        <v>0.44242424242424233</v>
+        <v>-0.6969696969696969</v>
       </c>
       <c r="F16" t="n">
         <v>0.11244984748999777</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2242424242424242</v>
+        <v>-0.7939393939393938</v>
       </c>
       <c r="H16" t="n">
-        <v>0.39393939393939387</v>
+        <v>-0.7575757575757575</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5757575757575757</v>
+        <v>0.13939393939393938</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.4863244349440517</v>
+        <v>0.6969696969696969</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5515151515151514</v>
+        <v>0.8328305948416884</v>
       </c>
       <c r="L16" t="n">
-        <v>0.49090909090909085</v>
+        <v>-0.4666666666666666</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.43030303030303024</v>
+        <v>-0.6363636363636362</v>
       </c>
       <c r="N16" t="n">
-        <v>0.8424242424242423</v>
+        <v>0.7939393939393938</v>
       </c>
       <c r="O16" t="n">
-        <v>0.406060606060606</v>
+        <v>0.04242424242424242</v>
       </c>
       <c r="P16" t="n">
         <v>1.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9174698042719672</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="R16" t="n">
-        <v>0.19999999999999996</v>
+        <v>-0.1890279043289223</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4666666666666666</v>
+        <v>0.915151515151515</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.8181818181818181</v>
       </c>
     </row>
     <row r="17">
@@ -1065,58 +1116,61 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.04893172289450491</v>
+        <v>-0.06666666666666667</v>
       </c>
       <c r="C17" t="n">
-        <v>0.31805619881428193</v>
+        <v>-0.018181818181818177</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07384650341622818</v>
+        <v>-0.09146511499786564</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5688312786486197</v>
+        <v>0.36969696969696964</v>
       </c>
       <c r="F17" t="n">
-        <v>0.257526543765471</v>
+        <v>0.017299976536922734</v>
       </c>
       <c r="G17" t="n">
-        <v>0.018349396085439344</v>
+        <v>-0.29696969696969694</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5321324864777409</v>
+        <v>0.2848484848484848</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.7523252395030131</v>
+        <v>0.7939393939393938</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.6349812749303677</v>
+        <v>-0.5757575757575757</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6361123976285639</v>
+        <v>-0.4255338805760452</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6483453283521902</v>
+        <v>0.5030303030303029</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.6177630015431246</v>
+        <v>0.5393939393939393</v>
       </c>
       <c r="N17" t="n">
-        <v>0.850188685292023</v>
+        <v>-0.43030303030303024</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1712610301307672</v>
+        <v>0.806060606060606</v>
       </c>
       <c r="P17" t="n">
-        <v>0.9174698042719672</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q17" t="n">
         <v>1.0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0428152575326918</v>
+        <v>0.8536744066467459</v>
       </c>
       <c r="S17" t="n">
-        <v>0.35475499098516067</v>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.11515151515151514</v>
       </c>
     </row>
     <row r="18">
@@ -1124,58 +1178,61 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.018181818181818177</v>
+        <v>-0.04268372033233729</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0303030303030303</v>
+        <v>0.32317673965912525</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.34146976265869833</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.24848484848484845</v>
+        <v>0.5304976669876206</v>
       </c>
       <c r="F18" t="n">
-        <v>0.39789946034922286</v>
+        <v>0.25673536971827493</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.3575757575757575</v>
+        <v>0.024390697332764166</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.24848484848484845</v>
+        <v>0.4878139466552834</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.5304976669876206</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3829804925184407</v>
+        <v>-0.7744046403152622</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.10303030303030301</v>
+        <v>-0.6024493002399199</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.6</v>
+        <v>0.6036697589859131</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5878787878787879</v>
+        <v>0.6890371996505877</v>
       </c>
       <c r="N18" t="n">
-        <v>0.18787878787878787</v>
+        <v>-0.6402558049850594</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9393939393939392</v>
+        <v>0.8170883606475996</v>
       </c>
       <c r="P18" t="n">
-        <v>0.19999999999999996</v>
+        <v>-0.1890279043289223</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0428152575326918</v>
+        <v>0.8536744066467459</v>
       </c>
       <c r="R18" t="n">
         <v>1.0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.7696969696969695</v>
+        <v>-0.3353720883255073</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.012195348666382083</v>
       </c>
     </row>
     <row r="19">
@@ -1183,57 +1240,122 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.26060606060606056</v>
+        <v>-0.44242424242424233</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.07878787878787878</v>
+        <v>-0.29696969696969694</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.03048837166595521</v>
+        <v>-0.4939116209884744</v>
       </c>
       <c r="E19" t="n">
-        <v>0.18787878787878787</v>
+        <v>-0.709090909090909</v>
       </c>
       <c r="F19" t="n">
-        <v>0.017299976536922734</v>
+        <v>0.3027495893961479</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.26060606060606056</v>
+        <v>-0.6727272727272726</v>
       </c>
       <c r="H19" t="n">
+        <v>-0.6969696969696969</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.018181818181818177</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.806060606060606</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8814630383360936</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.5878787878787879</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.806060606060606</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.903030303030303</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0.18787878787878787</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.915151515151515</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-0.3353720883255073</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.7696969696969695</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.1636363636363636</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.3454545454545454</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.18293022999573127</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.2727272727272727</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.07784989441615231</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.5757575757575757</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.39393939393939387</v>
+      </c>
+      <c r="I20" t="n">
         <v>0.054545454545454536</v>
       </c>
-      <c r="I19" t="n">
-        <v>0.17575757575757575</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0790277206784084</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J20" t="n">
+        <v>0.4666666666666666</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.5775102664960613</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.18787878787878787</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.3454545454545454</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.5393939393939393</v>
+      </c>
+      <c r="O20" t="n">
         <v>0.29696969696969694</v>
       </c>
-      <c r="L19" t="n">
-        <v>-0.13939393939393938</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.2242424242424242</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.5878787878787879</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.8424242424242423</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.4666666666666666</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.35475499098516067</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="P20" t="n">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.11515151515151514</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.012195348666382083</v>
+      </c>
+      <c r="S20" t="n">
         <v>0.7696969696969695</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T20" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1306,6 +1428,9 @@
       <c r="S1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1333,36 +1458,39 @@
         <v>0.7575757575757575</v>
       </c>
       <c r="I2" t="n">
+        <v>-0.2674784392192284</v>
+      </c>
+      <c r="J2" t="n">
         <v>-0.2553203283456271</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>-0.5471149893120582</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>-0.1337392196096142</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>-0.08510677611520905</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>-0.4127015636572767</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.16565664216775916</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>-0.16565664216775916</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>-0.20246922931615008</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>-0.1563263498701806</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>-0.3374487155269168</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-0.16565664216775916</v>
       </c>
     </row>
@@ -1392,36 +1520,39 @@
         <v>0.3090909090909091</v>
       </c>
       <c r="I3" t="n">
+        <v>0.32218993815043423</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.22492505116162387</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>-0.12766016417281356</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.6139845991168652</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.15197638592001614</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.28764048376113227</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.4724282017376836</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>-0.10430233025377429</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>-0.06748974310538337</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.05627748595326501</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>0.12884405501936824</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.03067715595699244</v>
       </c>
     </row>
@@ -1451,36 +1582,39 @@
         <v>0.5627748595326502</v>
       </c>
       <c r="I4" t="n">
+        <v>0.1223057396109362</v>
+      </c>
+      <c r="J4" t="n">
         <v>-0.46727064620588454</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>-0.4986310922599707</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.3794613972544431</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>-0.12857782882175345</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>-0.14838709677419354</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>0.7976121446165623</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>-0.06963280627604909</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>0.3798153069602678</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>0.467741935483871</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>0.3798153069602678</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>0.5127506643963614</v>
       </c>
     </row>
@@ -1510,36 +1644,39 @@
         <v>0.668696098048071</v>
       </c>
       <c r="I5" t="n">
+        <v>-0.2317073170731708</v>
+      </c>
+      <c r="J5" t="n">
         <v>-0.6585365853658538</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>-0.9512195121951221</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>-0.29268292682926833</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>-0.24390243902439032</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>-0.36378117422740003</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>0.7446471099018033</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>0.09231162519443843</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>0.3754006091240496</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>0.5080392260761966</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>0.3384759590462742</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>0.46155812597219215</v>
       </c>
     </row>
@@ -1569,36 +1706,39 @@
         <v>-0.4073001558161986</v>
       </c>
       <c r="I6" t="n">
+        <v>0.648476249830151</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.5187809998641209</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>0.674415299823357</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>0.6873848248199601</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>0.07781714997961811</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.6670373459650701</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>-0.26834092814179344</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>-0.255251126769023</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>-0.1112633116685485</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>-0.30683717914393227</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>0.13744291441408935</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-0.13744291441408935</v>
       </c>
     </row>
@@ -1628,36 +1768,39 @@
         <v>0.7212121212121211</v>
       </c>
       <c r="I7" t="n">
+        <v>0.10334394242561097</v>
+      </c>
+      <c r="J7" t="n">
         <v>-0.32218993815043423</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>-0.7598819296000807</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.03039527718400323</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>-0.03039527718400323</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>-0.20635078182863836</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>0.4478864769720896</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>-0.3865321650581047</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>-0.10430233025377429</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>0.07503664793768668</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>-0.06748974310538337</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>0.0061354311913984876</v>
       </c>
     </row>
@@ -1687,36 +1830,39 @@
         <v>1.0</v>
       </c>
       <c r="I8" t="n">
+        <v>-0.1702135522304181</v>
+      </c>
+      <c r="J8" t="n">
         <v>-0.4255338805760452</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>-0.7416447632896788</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>0.03647433262080387</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>-0.27963655009282967</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>-0.25637521378709616</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>0.5583242384172624</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>-0.16565664216775916</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>0.0061354311913984876</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>0.05627748595326501</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>-0.0061354311913984876</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>0.10430233025377429</v>
       </c>
     </row>
@@ -1725,58 +1871,61 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2553203283456271</v>
+        <v>-0.2674784392192284</v>
       </c>
       <c r="C9" t="n">
-        <v>0.22492505116162387</v>
+        <v>0.32218993815043423</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.46727064620588454</v>
+        <v>0.1223057396109362</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.6585365853658538</v>
+        <v>-0.2317073170731708</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5187809998641209</v>
+        <v>0.648476249830151</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.32218993815043423</v>
+        <v>0.10334394242561097</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.4255338805760452</v>
+        <v>-0.1702135522304181</v>
       </c>
       <c r="I9" t="n">
         <v>1.0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5609756097560976</v>
+        <v>0.35365853658536595</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3170731707317074</v>
+        <v>0.402439024390244</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3414634146341464</v>
+        <v>0.8414634146341465</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6773856347682621</v>
+        <v>0.5243902439024392</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.58464029289811</v>
+        <v>0.20697894395696897</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.16616092534998916</v>
+        <v>-0.31385952566109065</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.6831060264388444</v>
+        <v>-0.7323388932092115</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.6962019024007139</v>
+        <v>-0.27693487558331525</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.3877088258166414</v>
+        <v>-0.31987654975167934</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.756955326594395</v>
+        <v>-0.20308557542776454</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.24001022550553988</v>
       </c>
     </row>
     <row r="10">
@@ -1784,58 +1933,61 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.5471149893120582</v>
+        <v>-0.2553203283456271</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.12766016417281356</v>
+        <v>0.22492505116162387</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.4986310922599707</v>
+        <v>-0.46727064620588454</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9512195121951221</v>
+        <v>-0.6585365853658538</v>
       </c>
       <c r="F10" t="n">
-        <v>0.674415299823357</v>
+        <v>0.5187809998641209</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.7598819296000807</v>
+        <v>-0.32218993815043423</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.7416447632896788</v>
+        <v>-0.4255338805760452</v>
       </c>
       <c r="I10" t="n">
+        <v>0.35365853658536595</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.5609756097560976</v>
       </c>
-      <c r="J10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.4146341463414635</v>
-      </c>
       <c r="L10" t="n">
-        <v>0.26829268292682934</v>
+        <v>0.3170731707317074</v>
       </c>
       <c r="M10" t="n">
-        <v>0.36378117422740003</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.6954142431314362</v>
+        <v>0.6773856347682621</v>
       </c>
       <c r="O10" t="n">
+        <v>-0.58464029289811</v>
+      </c>
+      <c r="P10" t="n">
         <v>-0.16616092534998916</v>
       </c>
-      <c r="P10" t="n">
-        <v>-0.2523184421981317</v>
-      </c>
       <c r="Q10" t="n">
-        <v>-0.3951416202814862</v>
+        <v>-0.6831060264388444</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.21539379212035634</v>
+        <v>-0.6962019024007139</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.31385952566109065</v>
+        <v>-0.3877088258166414</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.756955326594395</v>
       </c>
     </row>
     <row r="11">
@@ -1843,58 +1995,61 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1337392196096142</v>
+        <v>-0.5471149893120582</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6139845991168652</v>
+        <v>-0.12766016417281356</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3794613972544431</v>
+        <v>-0.4986310922599707</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.29268292682926833</v>
+        <v>-0.9512195121951221</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6873848248199601</v>
+        <v>0.674415299823357</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03039527718400323</v>
+        <v>-0.7598819296000807</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03647433262080387</v>
+        <v>-0.7416447632896788</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3170731707317074</v>
+        <v>0.402439024390244</v>
       </c>
       <c r="J11" t="n">
+        <v>0.5609756097560976</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L11" t="n">
         <v>0.4146341463414635</v>
       </c>
-      <c r="K11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.3292682926829269</v>
-      </c>
       <c r="M11" t="n">
-        <v>0.2822440144867759</v>
+        <v>0.26829268292682934</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.05538697511666306</v>
+        <v>0.36378117422740003</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.5723320762055183</v>
+        <v>-0.6954142431314362</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.15385270865739736</v>
+        <v>-0.16616092534998916</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.2446114792218724</v>
+        <v>-0.2523184421981317</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06769519180925485</v>
+        <v>-0.3951416202814862</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.10461984188703022</v>
+        <v>-0.21539379212035634</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.31385952566109065</v>
       </c>
     </row>
     <row r="12">
@@ -1902,58 +2057,61 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.08510677611520905</v>
+        <v>-0.1337392196096142</v>
       </c>
       <c r="C12" t="n">
-        <v>0.15197638592001614</v>
+        <v>0.6139845991168652</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.12857782882175345</v>
+        <v>0.3794613972544431</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.24390243902439032</v>
+        <v>-0.29268292682926833</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07781714997961811</v>
+        <v>0.6873848248199601</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03039527718400323</v>
+        <v>0.03039527718400323</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.27963655009282967</v>
+        <v>0.03647433262080387</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3414634146341464</v>
+        <v>0.8414634146341465</v>
       </c>
       <c r="J12" t="n">
-        <v>0.26829268292682934</v>
+        <v>0.3170731707317074</v>
       </c>
       <c r="K12" t="n">
+        <v>0.4146341463414635</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M12" t="n">
         <v>0.3292682926829269</v>
       </c>
-      <c r="L12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-0.3449649065949483</v>
-      </c>
       <c r="N12" t="n">
-        <v>-0.350784175738866</v>
+        <v>0.2822440144867759</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.46155812597219215</v>
+        <v>-0.05538697511666306</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.412325259201825</v>
+        <v>-0.5723320762055183</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.03136044605408621</v>
+        <v>-0.15385270865739736</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.5969485095907019</v>
+        <v>-0.2446114792218724</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.350784175738866</v>
+        <v>-0.06769519180925485</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.10461984188703022</v>
       </c>
     </row>
     <row r="13">
@@ -1961,58 +2119,61 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.4127015636572767</v>
+        <v>-0.08510677611520905</v>
       </c>
       <c r="C13" t="n">
-        <v>0.28764048376113227</v>
+        <v>0.15197638592001614</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.14838709677419354</v>
+        <v>-0.12857782882175345</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.36378117422740003</v>
+        <v>-0.24390243902439032</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6670373459650701</v>
+        <v>0.07781714997961811</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.20635078182863836</v>
+        <v>-0.03039527718400323</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.25637521378709616</v>
+        <v>-0.27963655009282967</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6773856347682621</v>
+        <v>0.5243902439024392</v>
       </c>
       <c r="J13" t="n">
-        <v>0.36378117422740003</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2822440144867759</v>
+        <v>0.26829268292682934</v>
       </c>
       <c r="L13" t="n">
+        <v>0.3292682926829269</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N13" t="n">
         <v>-0.3449649065949483</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-0.15825637790011154</v>
-      </c>
       <c r="O13" t="n">
-        <v>0.13926561255209818</v>
+        <v>-0.350784175738866</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.20256816371214278</v>
+        <v>-0.46155812597219215</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.49354838709677423</v>
+        <v>-0.412325259201825</v>
       </c>
       <c r="R13" t="n">
-        <v>0.27853122510419637</v>
+        <v>-0.03136044605408621</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.2848614802202008</v>
+        <v>-0.5969485095907019</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.350784175738866</v>
       </c>
     </row>
     <row r="14">
@@ -2020,58 +2181,61 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.16565664216775916</v>
+        <v>-0.4127015636572767</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4724282017376836</v>
+        <v>0.28764048376113227</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7976121446165623</v>
+        <v>-0.14838709677419354</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7446471099018033</v>
+        <v>-0.36378117422740003</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.26834092814179344</v>
+        <v>0.6670373459650701</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4478864769720896</v>
+        <v>-0.20635078182863836</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5583242384172624</v>
+        <v>-0.25637521378709616</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.58464029289811</v>
+        <v>0.20697894395696897</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.6954142431314362</v>
+        <v>0.6773856347682621</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.05538697511666306</v>
+        <v>0.36378117422740003</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.350784175738866</v>
+        <v>0.2822440144867759</v>
       </c>
       <c r="M14" t="n">
+        <v>-0.3449649065949483</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O14" t="n">
         <v>-0.15825637790011154</v>
       </c>
-      <c r="N14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.45341614906832306</v>
-      </c>
       <c r="P14" t="n">
-        <v>0.6770186335403727</v>
+        <v>0.13926561255209818</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.7406398485725221</v>
+        <v>-0.20256816371214278</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6770186335403727</v>
+        <v>-0.49354838709677423</v>
       </c>
       <c r="S14" t="n">
-        <v>0.7515527950310561</v>
+        <v>0.27853122510419637</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-0.2848614802202008</v>
       </c>
     </row>
     <row r="15">
@@ -2079,58 +2243,61 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.16565664216775916</v>
+        <v>0.16565664216775916</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.10430233025377429</v>
+        <v>0.4724282017376836</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.06963280627604909</v>
+        <v>0.7976121446165623</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09231162519443843</v>
+        <v>0.7446471099018033</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.255251126769023</v>
+        <v>-0.26834092814179344</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.3865321650581047</v>
+        <v>0.4478864769720896</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.16565664216775916</v>
+        <v>0.5583242384172624</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.16616092534998916</v>
+        <v>-0.31385952566109065</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.16616092534998916</v>
+        <v>-0.58464029289811</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.5723320762055183</v>
+        <v>-0.6954142431314362</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.46155812597219215</v>
+        <v>-0.05538697511666306</v>
       </c>
       <c r="M15" t="n">
-        <v>0.13926561255209818</v>
+        <v>-0.350784175738866</v>
       </c>
       <c r="N15" t="n">
+        <v>-0.15825637790011154</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P15" t="n">
         <v>0.45341614906832306</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.6024844720496896</v>
-      </c>
       <c r="Q15" t="n">
-        <v>0.5380716848603793</v>
+        <v>0.6770186335403727</v>
       </c>
       <c r="R15" t="n">
-        <v>0.6645962732919256</v>
+        <v>0.7406398485725221</v>
       </c>
       <c r="S15" t="n">
-        <v>0.5279503105590063</v>
+        <v>0.6770186335403727</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.7515527950310561</v>
       </c>
     </row>
     <row r="16">
@@ -2138,58 +2305,61 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.20246922931615008</v>
+        <v>-0.16565664216775916</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.06748974310538337</v>
+        <v>-0.10430233025377429</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3798153069602678</v>
+        <v>-0.06963280627604909</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3754006091240496</v>
+        <v>0.09231162519443843</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1112633116685485</v>
+        <v>-0.255251126769023</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.10430233025377429</v>
+        <v>-0.3865321650581047</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0061354311913984876</v>
+        <v>-0.16565664216775916</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.6831060264388444</v>
+        <v>-0.7323388932092115</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.2523184421981317</v>
+        <v>-0.16616092534998916</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.15385270865739736</v>
+        <v>-0.16616092534998916</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.412325259201825</v>
+        <v>-0.5723320762055183</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.20256816371214278</v>
+        <v>-0.46155812597219215</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6770186335403727</v>
+        <v>0.13926561255209818</v>
       </c>
       <c r="O16" t="n">
+        <v>0.45341614906832306</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>0.6024844720496896</v>
       </c>
-      <c r="P16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.835593675312589</v>
-      </c>
       <c r="R16" t="n">
-        <v>0.8633540372670809</v>
+        <v>0.5380716848603793</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9751552795031057</v>
+        <v>0.6645962732919256</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.5279503105590063</v>
       </c>
     </row>
     <row r="17">
@@ -2197,58 +2367,61 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1563263498701806</v>
+        <v>-0.20246922931615008</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05627748595326501</v>
+        <v>-0.06748974310538337</v>
       </c>
       <c r="D17" t="n">
-        <v>0.467741935483871</v>
+        <v>0.3798153069602678</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5080392260761966</v>
+        <v>0.3754006091240496</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.30683717914393227</v>
+        <v>-0.1112633116685485</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07503664793768668</v>
+        <v>-0.10430233025377429</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05627748595326501</v>
+        <v>0.0061354311913984876</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.6962019024007139</v>
+        <v>-0.27693487558331525</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.3951416202814862</v>
+        <v>-0.6831060264388444</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.2446114792218724</v>
+        <v>-0.2523184421981317</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.03136044605408621</v>
+        <v>-0.15385270865739736</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.49354838709677423</v>
+        <v>-0.412325259201825</v>
       </c>
       <c r="N17" t="n">
-        <v>0.7406398485725221</v>
+        <v>-0.20256816371214278</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5380716848603793</v>
+        <v>0.6770186335403727</v>
       </c>
       <c r="P17" t="n">
+        <v>0.6024844720496896</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R17" t="n">
         <v>0.835593675312589</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.6077044911364283</v>
-      </c>
       <c r="S17" t="n">
-        <v>0.8925659713566292</v>
+        <v>0.8633540372670809</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.9751552795031057</v>
       </c>
     </row>
     <row r="18">
@@ -2256,58 +2429,61 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.3374487155269168</v>
+        <v>-0.1563263498701806</v>
       </c>
       <c r="C18" t="n">
-        <v>0.12884405501936824</v>
+        <v>0.05627748595326501</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3798153069602678</v>
+        <v>0.467741935483871</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3384759590462742</v>
+        <v>0.5080392260761966</v>
       </c>
       <c r="F18" t="n">
-        <v>0.13744291441408935</v>
+        <v>-0.30683717914393227</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.06748974310538337</v>
+        <v>0.07503664793768668</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0061354311913984876</v>
+        <v>0.05627748595326501</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.3877088258166414</v>
+        <v>-0.31987654975167934</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.21539379212035634</v>
+        <v>-0.6962019024007139</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06769519180925485</v>
+        <v>-0.3951416202814862</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.5969485095907019</v>
+        <v>-0.2446114792218724</v>
       </c>
       <c r="M18" t="n">
-        <v>0.27853122510419637</v>
+        <v>-0.03136044605408621</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6770186335403727</v>
+        <v>-0.49354838709677423</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6645962732919256</v>
+        <v>0.7406398485725221</v>
       </c>
       <c r="P18" t="n">
-        <v>0.8633540372670809</v>
+        <v>0.5380716848603793</v>
       </c>
       <c r="Q18" t="n">
+        <v>0.835593675312589</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S18" t="n">
         <v>0.6077044911364283</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.8260869565217394</v>
+      <c r="T18" t="n">
+        <v>0.8925659713566292</v>
       </c>
     </row>
     <row r="19">
@@ -2315,57 +2491,122 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>-0.3374487155269168</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.12884405501936824</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.3798153069602678</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.3384759590462742</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.13744291441408935</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.06748974310538337</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.0061354311913984876</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.20308557542776454</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.3877088258166414</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.21539379212035634</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.06769519180925485</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.5969485095907019</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.27853122510419637</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.6770186335403727</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.6645962732919256</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.8633540372670809</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.6077044911364283</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.8260869565217394</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
         <v>-0.16565664216775916</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C20" t="n">
         <v>0.03067715595699244</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D20" t="n">
         <v>0.5127506643963614</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E20" t="n">
         <v>0.46155812597219215</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F20" t="n">
         <v>-0.13744291441408935</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>0.0061354311913984876</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>0.10430233025377429</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
+        <v>-0.24001022550553988</v>
+      </c>
+      <c r="J20" t="n">
         <v>-0.756955326594395</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K20" t="n">
         <v>-0.31385952566109065</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L20" t="n">
         <v>-0.10461984188703022</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M20" t="n">
         <v>-0.350784175738866</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N20" t="n">
         <v>-0.2848614802202008</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O20" t="n">
         <v>0.7515527950310561</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P20" t="n">
         <v>0.5279503105590063</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q20" t="n">
         <v>0.9751552795031057</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R20" t="n">
         <v>0.8925659713566292</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S20" t="n">
         <v>0.8260869565217394</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T20" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2438,6 +2679,9 @@
       <c r="S1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -2465,36 +2709,39 @@
         <v>0.8787878787878787</v>
       </c>
       <c r="I2" t="n">
+        <v>-0.06666666666666667</v>
+      </c>
+      <c r="J2" t="n">
         <v>-0.7333333333333333</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>-0.9393939393939392</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.10303030303030301</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.45454545454545453</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>-0.6810328622452322</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.8909090909090908</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>-0.2727272727272727</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.2674784392192284</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.6930123197952736</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.12727272727272726</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.2727272727272727</v>
       </c>
     </row>
@@ -2524,36 +2771,39 @@
         <v>0.29696969696969694</v>
       </c>
       <c r="I3" t="n">
+        <v>-0.3575757575757575</v>
+      </c>
+      <c r="J3" t="n">
         <v>-0.43030303030303024</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>-0.18787878787878787</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>-0.2242424242424242</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.11515151515151514</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>-0.30063612837852594</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.26060606060606056</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>-0.0909090909090909</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>-0.20668788485122194</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>0.5167197121280549</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>-0.06666666666666667</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-0.0303030303030303</v>
       </c>
     </row>
@@ -2583,36 +2833,39 @@
         <v>0.9509918346667655</v>
       </c>
       <c r="I4" t="n">
+        <v>-0.239281816464541</v>
+      </c>
+      <c r="J4" t="n">
         <v>-0.8160123484559989</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>-0.9019083851355776</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.06748974310538337</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.5092407888860745</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>-0.9130434782608696</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>0.7423871741592171</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>-0.4233447522064957</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>0.18462325038887686</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>0.7938799766721705</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>0.03067715595699244</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>0.11657319263657127</v>
       </c>
     </row>
@@ -2642,36 +2895,39 @@
         <v>0.9515151515151513</v>
       </c>
       <c r="I5" t="n">
+        <v>-0.29696969696969694</v>
+      </c>
+      <c r="J5" t="n">
         <v>-0.7454545454545454</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>-0.9878787878787877</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>-0.0909090909090909</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.39393939393939387</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>-0.791470623690405</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>0.8424242424242423</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>-0.19999999999999996</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>0.21884599572482324</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>0.7294866524160776</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>0.10303030303030301</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>0.1515151515151515</v>
       </c>
     </row>
@@ -2701,36 +2957,39 @@
         <v>0.13576671860539954</v>
       </c>
       <c r="I6" t="n">
+        <v>-0.1099063912519901</v>
+      </c>
+      <c r="J6" t="n">
         <v>-0.2779985190491514</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.08404606389858067</v>
       </c>
       <c r="K6" t="n">
         <v>0.08404606389858067</v>
       </c>
       <c r="L6" t="n">
+        <v>0.08404606389858067</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.09697622757528539</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>-0.22907152402348221</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>-0.09697622757528539</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>-0.3038588464025609</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>0.09727143747452265</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>0.2593904999320604</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>0.14869688228210426</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>0.07111590022187596</v>
       </c>
     </row>
@@ -2760,36 +3019,39 @@
         <v>0.9757575757575756</v>
       </c>
       <c r="I7" t="n">
+        <v>-0.12727272727272726</v>
+      </c>
+      <c r="J7" t="n">
         <v>-0.7333333333333333</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>-0.9393939393939392</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>-0.0303030303030303</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.4666666666666666</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>-0.8037414860732018</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>0.8303030303030301</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>-0.3575757575757575</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>0.2674784392192284</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>0.7538028741632801</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>0.12727272727272726</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>0.13939393939393938</v>
       </c>
     </row>
@@ -2819,36 +3081,39 @@
         <v>1.0</v>
       </c>
       <c r="I8" t="n">
+        <v>-0.2242424242424242</v>
+      </c>
+      <c r="J8" t="n">
         <v>-0.7939393939393938</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>-0.9393939393939392</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>-0.06666666666666667</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>0.36969696969696964</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>-0.8405540732215928</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>0.8181818181818181</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>-0.32121212121212117</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>0.291794660966431</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>0.8024353176576852</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>0.1515151515151515</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>0.17575757575757575</v>
       </c>
     </row>
@@ -2857,58 +3122,61 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.7333333333333333</v>
+        <v>-0.06666666666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.43030303030303024</v>
+        <v>-0.3575757575757575</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.8160123484559989</v>
+        <v>-0.239281816464541</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7454545454545454</v>
+        <v>-0.29696969696969694</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2779985190491514</v>
+        <v>-0.1099063912519901</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.7333333333333333</v>
+        <v>-0.12727272727272726</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.7939393939393938</v>
+        <v>-0.2242424242424242</v>
       </c>
       <c r="I9" t="n">
         <v>1.0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7212121212121211</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0909090909090909</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.2242424242424242</v>
+        <v>0.7696969696969695</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6442202750968412</v>
+        <v>0.2848484848484848</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.8666666666666666</v>
+        <v>0.3251778531441199</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2363636363636363</v>
+        <v>-0.17575757575757575</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.23708316203522517</v>
+        <v>-0.5636363636363636</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.9361745372672994</v>
+        <v>0.3404271044608362</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.1515151515151515</v>
+        <v>-0.1580554413568168</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.5030303030303029</v>
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.26060606060606056</v>
       </c>
     </row>
     <row r="10">
@@ -2916,58 +3184,61 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9393939393939392</v>
+        <v>-0.7333333333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.18787878787878787</v>
+        <v>-0.43030303030303024</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.9019083851355776</v>
+        <v>-0.8160123484559989</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9878787878787877</v>
+        <v>-0.7454545454545454</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08404606389858067</v>
+        <v>-0.2779985190491514</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.9393939393939392</v>
+        <v>-0.7333333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.9393939393939392</v>
+        <v>-0.7939393939393938</v>
       </c>
       <c r="I10" t="n">
+        <v>0.2121212121212121</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.7212121212121211</v>
       </c>
-      <c r="J10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.10303030303030301</v>
-      </c>
       <c r="L10" t="n">
-        <v>-0.406060606060606</v>
+        <v>-0.0909090909090909</v>
       </c>
       <c r="M10" t="n">
-        <v>0.766928898924811</v>
+        <v>-0.2242424242424242</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.8303030303030301</v>
+        <v>0.6442202750968412</v>
       </c>
       <c r="O10" t="n">
-        <v>0.18787878787878787</v>
+        <v>-0.8666666666666666</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.18845071854082002</v>
+        <v>0.2363636363636363</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.7538028741632801</v>
+        <v>-0.23708316203522517</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.0909090909090909</v>
+        <v>-0.9361745372672994</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.12727272727272726</v>
+        <v>-0.1515151515151515</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.5030303030303029</v>
       </c>
     </row>
     <row r="11">
@@ -2975,58 +3246,61 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.10303030303030301</v>
+        <v>-0.9393939393939392</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2242424242424242</v>
+        <v>-0.18787878787878787</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06748974310538337</v>
+        <v>-0.9019083851355776</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0909090909090909</v>
+        <v>-0.9878787878787877</v>
       </c>
       <c r="F11" t="n">
         <v>0.08404606389858067</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0303030303030303</v>
+        <v>-0.9393939393939392</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.06666666666666667</v>
+        <v>-0.9393939393939392</v>
       </c>
       <c r="I11" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.7212121212121211</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.10303030303030301</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.406060606060606</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.766928898924811</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.8303030303030301</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.18787878787878787</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.18845071854082002</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.7538028741632801</v>
+      </c>
+      <c r="S11" t="n">
         <v>-0.0909090909090909</v>
       </c>
-      <c r="J11" t="n">
-        <v>0.10303030303030301</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.47878787878787876</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.0061354311913984876</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-0.054545454545454536</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-0.7696969696969695</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.16413449679361744</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.04863244349440517</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.10303030303030301</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.24848484848484845</v>
+      <c r="T11" t="n">
+        <v>-0.12727272727272726</v>
       </c>
     </row>
     <row r="12">
@@ -3034,58 +3308,61 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.45454545454545453</v>
+        <v>0.10303030303030301</v>
       </c>
       <c r="C12" t="n">
-        <v>0.11515151515151514</v>
+        <v>-0.2242424242424242</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5092407888860745</v>
+        <v>0.06748974310538337</v>
       </c>
       <c r="E12" t="n">
-        <v>0.39393939393939387</v>
+        <v>-0.0909090909090909</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09697622757528539</v>
+        <v>0.08404606389858067</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4666666666666666</v>
+        <v>-0.0303030303030303</v>
       </c>
       <c r="H12" t="n">
-        <v>0.36969696969696964</v>
+        <v>-0.06666666666666667</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2242424242424242</v>
+        <v>0.7696969696969695</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.406060606060606</v>
+        <v>-0.0909090909090909</v>
       </c>
       <c r="K12" t="n">
+        <v>0.10303030303030301</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M12" t="n">
         <v>0.47878787878787876</v>
       </c>
-      <c r="L12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-0.6196785503312472</v>
-      </c>
       <c r="N12" t="n">
-        <v>0.2242424242424242</v>
+        <v>0.0061354311913984876</v>
       </c>
       <c r="O12" t="n">
+        <v>-0.054545454545454536</v>
+      </c>
+      <c r="P12" t="n">
         <v>-0.7696969696969695</v>
       </c>
-      <c r="P12" t="n">
-        <v>-0.3525852153344375</v>
-      </c>
       <c r="Q12" t="n">
-        <v>0.3161108827136336</v>
+        <v>0.16413449679361744</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.47878787878787876</v>
+        <v>0.04863244349440517</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.39393939393939387</v>
+        <v>0.10303030303030301</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.24848484848484845</v>
       </c>
     </row>
     <row r="13">
@@ -3093,58 +3370,61 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.6810328622452322</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.30063612837852594</v>
+        <v>0.11515151515151514</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.9130434782608696</v>
+        <v>0.5092407888860745</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.791470623690405</v>
+        <v>0.39393939393939387</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.22907152402348221</v>
+        <v>0.09697622757528539</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.8037414860732018</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.8405540732215928</v>
+        <v>0.36969696969696964</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6442202750968412</v>
+        <v>0.2848484848484848</v>
       </c>
       <c r="J13" t="n">
-        <v>0.766928898924811</v>
+        <v>-0.2242424242424242</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0061354311913984876</v>
+        <v>-0.406060606060606</v>
       </c>
       <c r="L13" t="n">
+        <v>0.47878787878787876</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N13" t="n">
         <v>-0.6196785503312472</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-0.5705951008000594</v>
-      </c>
       <c r="O13" t="n">
-        <v>0.49696992650327754</v>
+        <v>0.2242424242424242</v>
       </c>
       <c r="P13" t="n">
-        <v>0.14769860031110146</v>
+        <v>-0.7696969696969695</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.646181376361069</v>
+        <v>-0.3525852153344375</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3251778531441199</v>
+        <v>0.3161108827136336</v>
       </c>
       <c r="S13" t="n">
-        <v>0.251552678847338</v>
+        <v>-0.47878787878787876</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.39393939393939387</v>
       </c>
     </row>
     <row r="14">
@@ -3152,58 +3432,61 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8909090909090908</v>
+        <v>-0.6810328622452322</v>
       </c>
       <c r="C14" t="n">
-        <v>0.26060606060606056</v>
+        <v>-0.30063612837852594</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7423871741592171</v>
+        <v>-0.9130434782608696</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8424242424242423</v>
+        <v>-0.791470623690405</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.09697622757528539</v>
+        <v>-0.22907152402348221</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8303030303030301</v>
+        <v>-0.8037414860732018</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8181818181818181</v>
+        <v>-0.8405540732215928</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.8666666666666666</v>
+        <v>0.3251778531441199</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.8303030303030301</v>
+        <v>0.6442202750968412</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.054545454545454536</v>
+        <v>0.766928898924811</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2242424242424242</v>
+        <v>0.0061354311913984876</v>
       </c>
       <c r="M14" t="n">
+        <v>-0.6196785503312472</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O14" t="n">
         <v>-0.5705951008000594</v>
       </c>
-      <c r="N14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>-0.0909090909090909</v>
-      </c>
       <c r="P14" t="n">
-        <v>0.21884599572482324</v>
+        <v>0.49696992650327754</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8145934285312866</v>
+        <v>0.14769860031110146</v>
       </c>
       <c r="R14" t="n">
-        <v>0.11515151515151514</v>
+        <v>-0.646181376361069</v>
       </c>
       <c r="S14" t="n">
-        <v>0.43030303030303024</v>
+        <v>0.3251778531441199</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.251552678847338</v>
       </c>
     </row>
     <row r="15">
@@ -3211,58 +3494,61 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2727272727272727</v>
+        <v>0.8909090909090908</v>
       </c>
       <c r="C15" t="n">
+        <v>0.26060606060606056</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7423871741592171</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8424242424242423</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.09697622757528539</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.8303030303030301</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.17575757575757575</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.8666666666666666</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.8303030303030301</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.054545454545454536</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.2242424242424242</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.5705951008000594</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P15" t="n">
         <v>-0.0909090909090909</v>
       </c>
-      <c r="D15" t="n">
-        <v>-0.4233447522064957</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.19999999999999996</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.3038588464025609</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.3575757575757575</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-0.32121212121212117</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.2363636363636363</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.18787878787878787</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-0.7696969696969695</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-0.7696969696969695</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.49696992650327754</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-0.0909090909090909</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.012158110873601292</v>
-      </c>
       <c r="Q15" t="n">
-        <v>-0.27963655009282967</v>
+        <v>0.21884599572482324</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.8145934285312866</v>
       </c>
       <c r="S15" t="n">
-        <v>0.12727272727272726</v>
+        <v>0.11515151515151514</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.43030303030303024</v>
       </c>
     </row>
     <row r="16">
@@ -3270,58 +3556,61 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2674784392192284</v>
+        <v>-0.2727272727272727</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.20668788485122194</v>
+        <v>-0.0909090909090909</v>
       </c>
       <c r="D16" t="n">
-        <v>0.18462325038887686</v>
+        <v>-0.4233447522064957</v>
       </c>
       <c r="E16" t="n">
-        <v>0.21884599572482324</v>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09727143747452265</v>
+        <v>-0.3038588464025609</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2674784392192284</v>
+        <v>-0.3575757575757575</v>
       </c>
       <c r="H16" t="n">
-        <v>0.291794660966431</v>
+        <v>-0.32121212121212117</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.23708316203522517</v>
+        <v>-0.5636363636363636</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.18845071854082002</v>
+        <v>0.2363636363636363</v>
       </c>
       <c r="K16" t="n">
-        <v>0.16413449679361744</v>
+        <v>0.18787878787878787</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.3525852153344375</v>
+        <v>-0.7696969696969695</v>
       </c>
       <c r="M16" t="n">
-        <v>0.14769860031110146</v>
+        <v>-0.7696969696969695</v>
       </c>
       <c r="N16" t="n">
-        <v>0.21884599572482324</v>
+        <v>0.49696992650327754</v>
       </c>
       <c r="O16" t="n">
+        <v>-0.0909090909090909</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>0.012158110873601292</v>
       </c>
-      <c r="P16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.15243902439024393</v>
-      </c>
       <c r="R16" t="n">
-        <v>0.9422535927041</v>
+        <v>-0.27963655009282967</v>
       </c>
       <c r="S16" t="n">
-        <v>0.772040040473682</v>
+        <v>0.1515151515151515</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.12727272727272726</v>
       </c>
     </row>
     <row r="17">
@@ -3329,58 +3618,61 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6930123197952736</v>
+        <v>0.2674784392192284</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5167197121280549</v>
+        <v>-0.20668788485122194</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7938799766721705</v>
+        <v>0.18462325038887686</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7294866524160776</v>
+        <v>0.21884599572482324</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2593904999320604</v>
+        <v>0.09727143747452265</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7538028741632801</v>
+        <v>0.2674784392192284</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8024353176576852</v>
+        <v>0.291794660966431</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.9361745372672994</v>
+        <v>0.3404271044608362</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.7538028741632801</v>
+        <v>-0.23708316203522517</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04863244349440517</v>
+        <v>-0.18845071854082002</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3161108827136336</v>
+        <v>0.16413449679361744</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.646181376361069</v>
+        <v>-0.3525852153344375</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8145934285312866</v>
+        <v>0.14769860031110146</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.27963655009282967</v>
+        <v>0.21884599572482324</v>
       </c>
       <c r="P17" t="n">
+        <v>0.012158110873601292</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R17" t="n">
         <v>0.15243902439024393</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.10942299786241162</v>
-      </c>
       <c r="S17" t="n">
-        <v>0.37690143708164003</v>
+        <v>0.9422535927041</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.772040040473682</v>
       </c>
     </row>
     <row r="18">
@@ -3388,58 +3680,61 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.12727272727272726</v>
+        <v>0.6930123197952736</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.06666666666666667</v>
+        <v>0.5167197121280549</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03067715595699244</v>
+        <v>0.7938799766721705</v>
       </c>
       <c r="E18" t="n">
-        <v>0.10303030303030301</v>
+        <v>0.7294866524160776</v>
       </c>
       <c r="F18" t="n">
-        <v>0.14869688228210426</v>
+        <v>0.2593904999320604</v>
       </c>
       <c r="G18" t="n">
-        <v>0.12727272727272726</v>
+        <v>0.7538028741632801</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.8024353176576852</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1515151515151515</v>
+        <v>-0.1580554413568168</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0909090909090909</v>
+        <v>-0.9361745372672994</v>
       </c>
       <c r="K18" t="n">
-        <v>0.10303030303030301</v>
+        <v>-0.7538028741632801</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.47878787878787876</v>
+        <v>0.04863244349440517</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3251778531441199</v>
+        <v>0.3161108827136336</v>
       </c>
       <c r="N18" t="n">
-        <v>0.11515151515151514</v>
+        <v>-0.646181376361069</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.8145934285312866</v>
       </c>
       <c r="P18" t="n">
-        <v>0.9422535927041</v>
+        <v>-0.27963655009282967</v>
       </c>
       <c r="Q18" t="n">
+        <v>0.15243902439024393</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S18" t="n">
         <v>0.10942299786241162</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.7818181818181817</v>
+      <c r="T18" t="n">
+        <v>0.37690143708164003</v>
       </c>
     </row>
     <row r="19">
@@ -3447,57 +3742,122 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>0.12727272727272726</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.06666666666666667</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.03067715595699244</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.10303030303030301</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.14869688228210426</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.12727272727272726</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.1515151515151515</v>
+      </c>
+      <c r="I19" t="n">
         <v>0.2727272727272727</v>
       </c>
-      <c r="C19" t="n">
+      <c r="J19" t="n">
+        <v>-0.1515151515151515</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.0909090909090909</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.10303030303030301</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.47878787878787876</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.3251778531441199</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.11515151515151514</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.1515151515151515</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.9422535927041</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.10942299786241162</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.7818181818181817</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="C20" t="n">
         <v>-0.0303030303030303</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D20" t="n">
         <v>0.11657319263657127</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E20" t="n">
         <v>0.1515151515151515</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F20" t="n">
         <v>0.07111590022187596</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>0.13939393939393938</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>0.17575757575757575</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
+        <v>0.26060606060606056</v>
+      </c>
+      <c r="J20" t="n">
         <v>-0.5030303030303029</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K20" t="n">
         <v>-0.12727272727272726</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L20" t="n">
         <v>0.24848484848484845</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M20" t="n">
         <v>-0.39393939393939387</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N20" t="n">
         <v>0.251552678847338</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O20" t="n">
         <v>0.43030303030303024</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P20" t="n">
         <v>0.12727272727272726</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q20" t="n">
         <v>0.772040040473682</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R20" t="n">
         <v>0.37690143708164003</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S20" t="n">
         <v>0.7818181818181817</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T20" t="n">
         <v>1.0</v>
       </c>
     </row>
